--- a/data/analysis/social_media_analytics/pivot_tables/country-governance/museum_activity_groups__var2-country-governance.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/country-governance/museum_activity_groups__var2-country-governance.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
   <si>
     <t>msg_count_twitter</t>
+  </si>
+  <si>
+    <t>msg_count_twitter_engage</t>
   </si>
   <si>
     <t>msg_count_facebook</t>
@@ -479,13 +482,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB50"/>
+  <dimension ref="A1:AO50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:41">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -517,111 +520,165 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
+      <c r="AC1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:41">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="AO2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="E4">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -636,13 +693,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K4">
         <v>7</v>
       </c>
       <c r="L4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -651,16 +708,16 @@
         <v>14.3</v>
       </c>
       <c r="O4">
-        <v>-1.5</v>
+        <v>-1.2</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -675,34 +732,73 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X4">
         <v>7</v>
       </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="AB4">
         <v>-1.2</v>
       </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>7</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>-1.2</v>
+      </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:41">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>1650</v>
+        <v>1200</v>
       </c>
       <c r="D5">
-        <v>150</v>
+        <v>109.1</v>
       </c>
       <c r="E5">
-        <v>497.5</v>
+        <v>361.8</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -717,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1650</v>
+        <v>1200</v>
       </c>
       <c r="K5">
         <v>11</v>
       </c>
       <c r="L5">
-        <v>1650</v>
+        <v>1200</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -732,16 +828,16 @@
         <v>9.1</v>
       </c>
       <c r="O5">
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
       <c r="P5">
-        <v>619</v>
+        <v>447</v>
       </c>
       <c r="Q5">
-        <v>56.3</v>
+        <v>40.6</v>
       </c>
       <c r="R5">
-        <v>186.6</v>
+        <v>134.8</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -756,13 +852,13 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>619</v>
+        <v>447</v>
       </c>
       <c r="X5">
         <v>11</v>
       </c>
       <c r="Y5">
-        <v>619</v>
+        <v>447</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -771,22 +867,61 @@
         <v>9.1</v>
       </c>
       <c r="AB5">
+        <v>-1.4</v>
+      </c>
+      <c r="AC5">
+        <v>619</v>
+      </c>
+      <c r="AD5">
+        <v>56.3</v>
+      </c>
+      <c r="AE5">
+        <v>186.6</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>619</v>
+      </c>
+      <c r="AK5">
+        <v>11</v>
+      </c>
+      <c r="AL5">
+        <v>619</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>9.1</v>
+      </c>
+      <c r="AO5">
         <v>-0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:41">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D6">
-        <v>25.5</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -798,16 +933,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>25.5</v>
+        <v>21</v>
       </c>
       <c r="J6">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="K6">
         <v>4</v>
       </c>
       <c r="L6">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -816,16 +951,16 @@
         <v>25</v>
       </c>
       <c r="O6">
-        <v>-1.1</v>
+        <v>-0.8</v>
       </c>
       <c r="P6">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="Q6">
-        <v>55.8</v>
+        <v>4</v>
       </c>
       <c r="R6">
-        <v>111.5</v>
+        <v>8</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -837,16 +972,16 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>55.8</v>
+        <v>4</v>
       </c>
       <c r="W6">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="X6">
         <v>4</v>
       </c>
       <c r="Y6">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="Z6">
         <v>1</v>
@@ -855,13 +990,52 @@
         <v>25</v>
       </c>
       <c r="AB6">
+        <v>-0.8</v>
+      </c>
+      <c r="AC6">
+        <v>223</v>
+      </c>
+      <c r="AD6">
+        <v>55.8</v>
+      </c>
+      <c r="AE6">
+        <v>111.5</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>55.8</v>
+      </c>
+      <c r="AJ6">
+        <v>223</v>
+      </c>
+      <c r="AK6">
+        <v>4</v>
+      </c>
+      <c r="AL6">
+        <v>223</v>
+      </c>
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>25</v>
+      </c>
+      <c r="AO6">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:41">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -894,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>-2</v>
+        <v>-1.7</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -927,40 +1101,73 @@
         <v>0</v>
       </c>
       <c r="AB7">
+        <v>-1.7</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:41">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="D8">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="F8">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="G8">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="H8">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="I8">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="J8">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -969,96 +1176,132 @@
         <v>100</v>
       </c>
       <c r="O8">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="X8">
         <v>1</v>
       </c>
+      <c r="Y8">
+        <v>33</v>
+      </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB8">
+        <v>1.8</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:41">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>1104447</v>
+        <v>526789</v>
       </c>
       <c r="D9">
-        <v>2200.1</v>
+        <v>1049.4</v>
       </c>
       <c r="E9">
-        <v>3964.6</v>
+        <v>1800.1</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>745.5</v>
+        <v>479</v>
       </c>
       <c r="I9">
-        <v>2213</v>
+        <v>1450</v>
       </c>
       <c r="J9">
-        <v>27937</v>
+        <v>19900</v>
       </c>
       <c r="K9">
         <v>502</v>
       </c>
       <c r="L9">
-        <v>2789</v>
+        <v>1479.7</v>
       </c>
       <c r="M9">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="N9">
-        <v>78.90000000000001</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="O9">
         <v>0.8</v>
       </c>
       <c r="P9">
-        <v>277951</v>
+        <v>154246</v>
       </c>
       <c r="Q9">
-        <v>553.7</v>
+        <v>307.3</v>
       </c>
       <c r="R9">
-        <v>958.2</v>
+        <v>862.9</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1067,148 +1310,226 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>27.5</v>
+        <v>57</v>
       </c>
       <c r="V9">
-        <v>784</v>
+        <v>279.8</v>
       </c>
       <c r="W9">
-        <v>7154</v>
+        <v>12827</v>
       </c>
       <c r="X9">
         <v>502</v>
       </c>
       <c r="Y9">
+        <v>432.1</v>
+      </c>
+      <c r="Z9">
+        <v>357</v>
+      </c>
+      <c r="AA9">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="AB9">
+        <v>0.8</v>
+      </c>
+      <c r="AC9">
+        <v>277951</v>
+      </c>
+      <c r="AD9">
+        <v>553.7</v>
+      </c>
+      <c r="AE9">
+        <v>958.2</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>27.5</v>
+      </c>
+      <c r="AI9">
+        <v>784</v>
+      </c>
+      <c r="AJ9">
+        <v>7154</v>
+      </c>
+      <c r="AK9">
+        <v>502</v>
+      </c>
+      <c r="AL9">
         <v>1107.4</v>
       </c>
-      <c r="Z9">
+      <c r="AM9">
         <v>251</v>
       </c>
-      <c r="AA9">
+      <c r="AN9">
         <v>50</v>
       </c>
-      <c r="AB9">
+      <c r="AO9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:41">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>259653</v>
+        <v>132041</v>
       </c>
       <c r="D10">
-        <v>5409.4</v>
+        <v>2750.9</v>
       </c>
       <c r="E10">
-        <v>6619.1</v>
+        <v>3939.6</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>769.2</v>
+        <v>275.8</v>
       </c>
       <c r="H10">
-        <v>2728</v>
+        <v>1651.5</v>
       </c>
       <c r="I10">
-        <v>6853.8</v>
+        <v>3662.2</v>
       </c>
       <c r="J10">
-        <v>23410</v>
+        <v>18330</v>
       </c>
       <c r="K10">
         <v>48</v>
       </c>
       <c r="L10">
-        <v>6038.4</v>
+        <v>3568.7</v>
       </c>
       <c r="M10">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N10">
-        <v>89.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="O10">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>34364</v>
+        <v>105190</v>
       </c>
       <c r="Q10">
-        <v>715.9</v>
+        <v>2191.5</v>
       </c>
       <c r="R10">
-        <v>665.2</v>
+        <v>3643</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>3.8</v>
+        <v>38</v>
       </c>
       <c r="U10">
-        <v>689.5</v>
+        <v>765.5</v>
       </c>
       <c r="V10">
-        <v>1070.5</v>
+        <v>2541</v>
       </c>
       <c r="W10">
-        <v>2991</v>
+        <v>18016</v>
       </c>
       <c r="X10">
         <v>48</v>
       </c>
       <c r="Y10">
+        <v>2629.8</v>
+      </c>
+      <c r="Z10">
+        <v>40</v>
+      </c>
+      <c r="AA10">
+        <v>83.3</v>
+      </c>
+      <c r="AB10">
+        <v>1.2</v>
+      </c>
+      <c r="AC10">
+        <v>34364</v>
+      </c>
+      <c r="AD10">
+        <v>715.9</v>
+      </c>
+      <c r="AE10">
+        <v>665.2</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>3.8</v>
+      </c>
+      <c r="AH10">
+        <v>689.5</v>
+      </c>
+      <c r="AI10">
+        <v>1070.5</v>
+      </c>
+      <c r="AJ10">
+        <v>2991</v>
+      </c>
+      <c r="AK10">
+        <v>48</v>
+      </c>
+      <c r="AL10">
         <v>954.6</v>
       </c>
-      <c r="Z10">
+      <c r="AM10">
         <v>36</v>
       </c>
-      <c r="AA10">
+      <c r="AN10">
         <v>75</v>
       </c>
-      <c r="AB10">
+      <c r="AO10">
         <v>1.4</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:41">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="D11">
-        <v>183</v>
+        <v>135.5</v>
       </c>
       <c r="E11">
-        <v>258.8</v>
+        <v>191.6</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>91.5</v>
+        <v>67.8</v>
       </c>
       <c r="H11">
-        <v>183</v>
+        <v>135.5</v>
       </c>
       <c r="I11">
-        <v>274.5</v>
+        <v>203.2</v>
       </c>
       <c r="J11">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -1217,58 +1538,97 @@
         <v>50</v>
       </c>
       <c r="O11">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>70.5</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="X11">
         <v>2</v>
       </c>
+      <c r="Y11">
+        <v>94</v>
+      </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>2</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:41">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12">
-        <v>11254</v>
+        <v>7803</v>
       </c>
       <c r="D12">
-        <v>216.4</v>
+        <v>150.1</v>
       </c>
       <c r="E12">
-        <v>465.2</v>
+        <v>330.4</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1280,34 +1640,34 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>250.2</v>
+        <v>203</v>
       </c>
       <c r="J12">
-        <v>2773</v>
+        <v>2032</v>
       </c>
       <c r="K12">
         <v>52</v>
       </c>
       <c r="L12">
-        <v>511.5</v>
+        <v>390.2</v>
       </c>
       <c r="M12">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N12">
-        <v>42.3</v>
+        <v>38.5</v>
       </c>
       <c r="O12">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="P12">
-        <v>5233</v>
+        <v>3414</v>
       </c>
       <c r="Q12">
-        <v>100.6</v>
+        <v>65.7</v>
       </c>
       <c r="R12">
-        <v>178.1</v>
+        <v>137.6</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1319,40 +1679,79 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>108.8</v>
+        <v>63.8</v>
       </c>
       <c r="W12">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="X12">
         <v>52</v>
       </c>
       <c r="Y12">
+        <v>155.2</v>
+      </c>
+      <c r="Z12">
+        <v>22</v>
+      </c>
+      <c r="AA12">
+        <v>42.3</v>
+      </c>
+      <c r="AB12">
+        <v>-0.2</v>
+      </c>
+      <c r="AC12">
+        <v>5233</v>
+      </c>
+      <c r="AD12">
+        <v>100.6</v>
+      </c>
+      <c r="AE12">
+        <v>178.1</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>108.8</v>
+      </c>
+      <c r="AJ12">
+        <v>727</v>
+      </c>
+      <c r="AK12">
+        <v>52</v>
+      </c>
+      <c r="AL12">
         <v>327.1</v>
       </c>
-      <c r="Z12">
+      <c r="AM12">
         <v>16</v>
       </c>
-      <c r="AA12">
+      <c r="AN12">
         <v>30.8</v>
       </c>
-      <c r="AB12">
+      <c r="AO12">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:41">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13">
-        <v>103364</v>
+        <v>77708</v>
       </c>
       <c r="D13">
-        <v>634.1</v>
+        <v>476.7</v>
       </c>
       <c r="E13">
-        <v>1211</v>
+        <v>944.2</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1361,37 +1760,37 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>264</v>
+        <v>201</v>
       </c>
       <c r="I13">
-        <v>758</v>
+        <v>595.5</v>
       </c>
       <c r="J13">
-        <v>9764</v>
+        <v>8769</v>
       </c>
       <c r="K13">
         <v>163</v>
       </c>
       <c r="L13">
-        <v>876</v>
+        <v>675.7</v>
       </c>
       <c r="M13">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N13">
-        <v>72.40000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="O13">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="P13">
-        <v>35370</v>
+        <v>25531</v>
       </c>
       <c r="Q13">
-        <v>217</v>
+        <v>156.6</v>
       </c>
       <c r="R13">
-        <v>299.2</v>
+        <v>324.9</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1400,43 +1799,82 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="V13">
-        <v>380</v>
+        <v>187</v>
       </c>
       <c r="W13">
-        <v>1253</v>
+        <v>2905</v>
       </c>
       <c r="X13">
         <v>163</v>
       </c>
       <c r="Y13">
+        <v>216.4</v>
+      </c>
+      <c r="Z13">
+        <v>118</v>
+      </c>
+      <c r="AA13">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="AB13">
+        <v>0.8</v>
+      </c>
+      <c r="AC13">
+        <v>35370</v>
+      </c>
+      <c r="AD13">
+        <v>217</v>
+      </c>
+      <c r="AE13">
+        <v>299.2</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>380</v>
+      </c>
+      <c r="AJ13">
+        <v>1253</v>
+      </c>
+      <c r="AK13">
+        <v>163</v>
+      </c>
+      <c r="AL13">
         <v>484.5</v>
       </c>
-      <c r="Z13">
+      <c r="AM13">
         <v>73</v>
       </c>
-      <c r="AA13">
+      <c r="AN13">
         <v>44.8</v>
       </c>
-      <c r="AB13">
+      <c r="AO13">
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:41">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>1863317</v>
+        <v>851380</v>
       </c>
       <c r="D14">
-        <v>1569.8</v>
+        <v>717.3</v>
       </c>
       <c r="E14">
-        <v>4962.4</v>
+        <v>1857.3</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1445,37 +1883,37 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="I14">
-        <v>1230.5</v>
+        <v>852</v>
       </c>
       <c r="J14">
-        <v>74441</v>
+        <v>43003</v>
       </c>
       <c r="K14">
         <v>1187</v>
       </c>
       <c r="L14">
-        <v>2236.9</v>
+        <v>1100</v>
       </c>
       <c r="M14">
-        <v>833</v>
+        <v>774</v>
       </c>
       <c r="N14">
-        <v>70.2</v>
+        <v>65.2</v>
       </c>
       <c r="O14">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="P14">
-        <v>317870</v>
+        <v>318312</v>
       </c>
       <c r="Q14">
-        <v>267.8</v>
+        <v>268.2</v>
       </c>
       <c r="R14">
-        <v>779.4</v>
+        <v>1001.1</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1484,43 +1922,82 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V14">
-        <v>317</v>
+        <v>141</v>
       </c>
       <c r="W14">
-        <v>20246</v>
+        <v>20111</v>
       </c>
       <c r="X14">
         <v>1187</v>
       </c>
       <c r="Y14">
+        <v>408.6</v>
+      </c>
+      <c r="Z14">
+        <v>779</v>
+      </c>
+      <c r="AA14">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="AB14">
+        <v>0.6</v>
+      </c>
+      <c r="AC14">
+        <v>317870</v>
+      </c>
+      <c r="AD14">
+        <v>267.8</v>
+      </c>
+      <c r="AE14">
+        <v>779.4</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>317</v>
+      </c>
+      <c r="AJ14">
+        <v>20246</v>
+      </c>
+      <c r="AK14">
+        <v>1187</v>
+      </c>
+      <c r="AL14">
         <v>804.7</v>
       </c>
-      <c r="Z14">
+      <c r="AM14">
         <v>395</v>
       </c>
-      <c r="AA14">
+      <c r="AN14">
         <v>33.3</v>
       </c>
-      <c r="AB14">
+      <c r="AO14">
         <v>-0</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:41">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15">
-        <v>415144</v>
+        <v>122811</v>
       </c>
       <c r="D15">
-        <v>1134.3</v>
+        <v>335.5</v>
       </c>
       <c r="E15">
-        <v>4482.2</v>
+        <v>1071.4</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1529,37 +2006,37 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>489.8</v>
+        <v>256.8</v>
       </c>
       <c r="J15">
-        <v>52507</v>
+        <v>14101</v>
       </c>
       <c r="K15">
         <v>366</v>
       </c>
       <c r="L15">
-        <v>1967.5</v>
+        <v>682.3</v>
       </c>
       <c r="M15">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="N15">
-        <v>57.7</v>
+        <v>49.2</v>
       </c>
       <c r="O15">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>129561</v>
+        <v>56389</v>
       </c>
       <c r="Q15">
-        <v>354</v>
+        <v>154.1</v>
       </c>
       <c r="R15">
-        <v>2074.7</v>
+        <v>1067.1</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -1568,43 +2045,82 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>192.5</v>
+        <v>55</v>
       </c>
       <c r="W15">
-        <v>36948</v>
+        <v>19557</v>
       </c>
       <c r="X15">
         <v>366</v>
       </c>
       <c r="Y15">
+        <v>293.7</v>
+      </c>
+      <c r="Z15">
+        <v>192</v>
+      </c>
+      <c r="AA15">
+        <v>52.5</v>
+      </c>
+      <c r="AB15">
+        <v>0.1</v>
+      </c>
+      <c r="AC15">
+        <v>129561</v>
+      </c>
+      <c r="AD15">
+        <v>354</v>
+      </c>
+      <c r="AE15">
+        <v>2074.7</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>192.5</v>
+      </c>
+      <c r="AJ15">
+        <v>36948</v>
+      </c>
+      <c r="AK15">
+        <v>366</v>
+      </c>
+      <c r="AL15">
         <v>1167.2</v>
       </c>
-      <c r="Z15">
+      <c r="AM15">
         <v>111</v>
       </c>
-      <c r="AA15">
+      <c r="AN15">
         <v>30.3</v>
       </c>
-      <c r="AB15">
+      <c r="AO15">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:41">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16">
-        <v>154742</v>
+        <v>40649</v>
       </c>
       <c r="D16">
-        <v>1778.6</v>
+        <v>467.2</v>
       </c>
       <c r="E16">
-        <v>6754.7</v>
+        <v>1069.2</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1616,34 +2132,34 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>708</v>
+        <v>353</v>
       </c>
       <c r="J16">
-        <v>52506</v>
+        <v>6108</v>
       </c>
       <c r="K16">
         <v>87</v>
       </c>
       <c r="L16">
-        <v>3967.7</v>
+        <v>1195.6</v>
       </c>
       <c r="M16">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N16">
-        <v>44.8</v>
+        <v>39.1</v>
       </c>
       <c r="O16">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="P16">
-        <v>36275</v>
+        <v>12813</v>
       </c>
       <c r="Q16">
-        <v>417</v>
+        <v>147.3</v>
       </c>
       <c r="R16">
-        <v>2363.7</v>
+        <v>389.5</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -1655,124 +2171,202 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>1.5</v>
+        <v>60</v>
       </c>
       <c r="W16">
-        <v>21892</v>
+        <v>2128</v>
       </c>
       <c r="X16">
         <v>87</v>
       </c>
       <c r="Y16">
-        <v>1648.9</v>
+        <v>366.1</v>
       </c>
       <c r="Z16">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="AA16">
-        <v>25.3</v>
+        <v>40.2</v>
       </c>
       <c r="AB16">
         <v>-0.3</v>
       </c>
+      <c r="AC16">
+        <v>36275</v>
+      </c>
+      <c r="AD16">
+        <v>417</v>
+      </c>
+      <c r="AE16">
+        <v>2363.7</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>1.5</v>
+      </c>
+      <c r="AJ16">
+        <v>21892</v>
+      </c>
+      <c r="AK16">
+        <v>87</v>
+      </c>
+      <c r="AL16">
+        <v>1648.9</v>
+      </c>
+      <c r="AM16">
+        <v>22</v>
+      </c>
+      <c r="AN16">
+        <v>25.3</v>
+      </c>
+      <c r="AO16">
+        <v>-0.3</v>
+      </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:41">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17">
-        <v>247102</v>
+        <v>113726</v>
       </c>
       <c r="D17">
-        <v>3861</v>
+        <v>1777</v>
       </c>
       <c r="E17">
-        <v>8198.4</v>
+        <v>2211.5</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>446.2</v>
+        <v>177</v>
       </c>
       <c r="H17">
-        <v>1890</v>
+        <v>1156</v>
       </c>
       <c r="I17">
-        <v>4329.2</v>
+        <v>2670.8</v>
       </c>
       <c r="J17">
-        <v>60386</v>
+        <v>13060</v>
       </c>
       <c r="K17">
         <v>64</v>
       </c>
       <c r="L17">
-        <v>4335.1</v>
+        <v>2145.8</v>
       </c>
       <c r="M17">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N17">
-        <v>89.09999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="O17">
         <v>1.2</v>
       </c>
       <c r="P17">
-        <v>31219</v>
+        <v>70087</v>
       </c>
       <c r="Q17">
-        <v>487.8</v>
+        <v>1095.1</v>
       </c>
       <c r="R17">
-        <v>532.2</v>
+        <v>5845.9</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="U17">
-        <v>361</v>
+        <v>222</v>
       </c>
       <c r="V17">
-        <v>868.8</v>
+        <v>483.5</v>
       </c>
       <c r="W17">
-        <v>1748</v>
+        <v>46992</v>
       </c>
       <c r="X17">
         <v>64</v>
       </c>
       <c r="Y17">
+        <v>1322.4</v>
+      </c>
+      <c r="Z17">
+        <v>53</v>
+      </c>
+      <c r="AA17">
+        <v>82.8</v>
+      </c>
+      <c r="AB17">
+        <v>1.2</v>
+      </c>
+      <c r="AC17">
+        <v>31219</v>
+      </c>
+      <c r="AD17">
+        <v>487.8</v>
+      </c>
+      <c r="AE17">
+        <v>532.2</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>361</v>
+      </c>
+      <c r="AI17">
+        <v>868.8</v>
+      </c>
+      <c r="AJ17">
+        <v>1748</v>
+      </c>
+      <c r="AK17">
+        <v>64</v>
+      </c>
+      <c r="AL17">
         <v>843.8</v>
       </c>
-      <c r="Z17">
+      <c r="AM17">
         <v>37</v>
       </c>
-      <c r="AA17">
+      <c r="AN17">
         <v>57.8</v>
       </c>
-      <c r="AB17">
+      <c r="AO17">
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:41">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
-        <v>52695</v>
+        <v>13622</v>
       </c>
       <c r="D18">
-        <v>1549.9</v>
+        <v>400.6</v>
       </c>
       <c r="E18">
-        <v>4806.1</v>
+        <v>976.8</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1784,34 +2378,34 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>451.2</v>
+        <v>114.8</v>
       </c>
       <c r="J18">
-        <v>26102</v>
+        <v>4250</v>
       </c>
       <c r="K18">
         <v>34</v>
       </c>
       <c r="L18">
-        <v>3293.4</v>
+        <v>973</v>
       </c>
       <c r="M18">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N18">
-        <v>47.1</v>
+        <v>41.2</v>
       </c>
       <c r="O18">
         <v>-0.3</v>
       </c>
       <c r="P18">
-        <v>4789</v>
+        <v>2252</v>
       </c>
       <c r="Q18">
-        <v>140.9</v>
+        <v>66.2</v>
       </c>
       <c r="R18">
-        <v>395.3</v>
+        <v>158.7</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -1823,33 +2417,72 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W18">
-        <v>1735</v>
+        <v>648</v>
       </c>
       <c r="X18">
         <v>34</v>
       </c>
       <c r="Y18">
+        <v>173.2</v>
+      </c>
+      <c r="Z18">
+        <v>13</v>
+      </c>
+      <c r="AA18">
+        <v>38.2</v>
+      </c>
+      <c r="AB18">
+        <v>-0.4</v>
+      </c>
+      <c r="AC18">
+        <v>4789</v>
+      </c>
+      <c r="AD18">
+        <v>140.9</v>
+      </c>
+      <c r="AE18">
+        <v>395.3</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>1735</v>
+      </c>
+      <c r="AK18">
+        <v>34</v>
+      </c>
+      <c r="AL18">
         <v>684.1</v>
       </c>
-      <c r="Z18">
+      <c r="AM18">
         <v>7</v>
       </c>
-      <c r="AA18">
+      <c r="AN18">
         <v>20.6</v>
       </c>
-      <c r="AB18">
+      <c r="AO18">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:41">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1882,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>-2</v>
+        <v>-1.7</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1915,43 +2548,76 @@
         <v>0</v>
       </c>
       <c r="AB19">
+        <v>-1.7</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:41">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="D20">
-        <v>1021</v>
+        <v>816.5</v>
       </c>
       <c r="E20">
-        <v>1443.9</v>
+        <v>1154.7</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>510.5</v>
+        <v>408.2</v>
       </c>
       <c r="H20">
-        <v>1021</v>
+        <v>816.5</v>
       </c>
       <c r="I20">
-        <v>1531.5</v>
+        <v>1224.8</v>
       </c>
       <c r="J20">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -1960,37 +2626,37 @@
         <v>50</v>
       </c>
       <c r="O20">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>675</v>
+        <v>411</v>
       </c>
       <c r="Q20">
-        <v>337.5</v>
+        <v>205.5</v>
       </c>
       <c r="R20">
-        <v>477.3</v>
+        <v>290.6</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>168.8</v>
+        <v>102.8</v>
       </c>
       <c r="U20">
-        <v>337.5</v>
+        <v>205.5</v>
       </c>
       <c r="V20">
-        <v>506.2</v>
+        <v>308.2</v>
       </c>
       <c r="W20">
-        <v>675</v>
+        <v>411</v>
       </c>
       <c r="X20">
         <v>2</v>
       </c>
       <c r="Y20">
-        <v>675</v>
+        <v>411</v>
       </c>
       <c r="Z20">
         <v>1</v>
@@ -1999,22 +2665,61 @@
         <v>50</v>
       </c>
       <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>675</v>
+      </c>
+      <c r="AD20">
+        <v>337.5</v>
+      </c>
+      <c r="AE20">
+        <v>477.3</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>168.8</v>
+      </c>
+      <c r="AH20">
+        <v>337.5</v>
+      </c>
+      <c r="AI20">
+        <v>506.2</v>
+      </c>
+      <c r="AJ20">
+        <v>675</v>
+      </c>
+      <c r="AK20">
+        <v>2</v>
+      </c>
+      <c r="AL20">
+        <v>675</v>
+      </c>
+      <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>50</v>
+      </c>
+      <c r="AO20">
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:41">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21">
-        <v>2156</v>
+        <v>1731</v>
       </c>
       <c r="D21">
-        <v>239.6</v>
+        <v>192.3</v>
       </c>
       <c r="E21">
-        <v>677</v>
+        <v>541.2</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2029,13 +2734,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="K21">
         <v>9</v>
       </c>
       <c r="L21">
-        <v>1078</v>
+        <v>865.5</v>
       </c>
       <c r="M21">
         <v>2</v>
@@ -2044,16 +2749,16 @@
         <v>22.2</v>
       </c>
       <c r="O21">
-        <v>-1.2</v>
+        <v>-0.9</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>47.4</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>136.4</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2068,55 +2773,94 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="X21">
         <v>9</v>
       </c>
+      <c r="Y21">
+        <v>213.5</v>
+      </c>
       <c r="Z21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="AB21">
+        <v>-0.9</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>9</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:41">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22">
-        <v>68782</v>
+        <v>47576</v>
       </c>
       <c r="D22">
-        <v>34391</v>
+        <v>23788</v>
       </c>
       <c r="E22">
-        <v>48626.3</v>
+        <v>33634.2</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>17199</v>
+        <v>11896.5</v>
       </c>
       <c r="H22">
-        <v>34391</v>
+        <v>23788</v>
       </c>
       <c r="I22">
-        <v>51583</v>
+        <v>35679.5</v>
       </c>
       <c r="J22">
-        <v>68775</v>
+        <v>47571</v>
       </c>
       <c r="K22">
         <v>2</v>
       </c>
       <c r="L22">
-        <v>34391</v>
+        <v>23788</v>
       </c>
       <c r="M22">
         <v>2</v>
@@ -2125,49 +2869,88 @@
         <v>100</v>
       </c>
       <c r="O22">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>20886</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>10443</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>14765.8</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>5222.5</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>10443</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>15663.5</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>20884</v>
       </c>
       <c r="X22">
         <v>2</v>
       </c>
+      <c r="Y22">
+        <v>10443</v>
+      </c>
       <c r="Z22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB22">
+        <v>1.8</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>2</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:41">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2200,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>-2</v>
+        <v>-1.7</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2233,24 +3016,57 @@
         <v>0</v>
       </c>
       <c r="AB23">
+        <v>-1.7</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:41">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24">
-        <v>95075</v>
+        <v>18475</v>
       </c>
       <c r="D24">
-        <v>3169.2</v>
+        <v>615.8</v>
       </c>
       <c r="E24">
-        <v>6685.3</v>
+        <v>2713.2</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2262,34 +3078,34 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1527</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J24">
-        <v>25383</v>
+        <v>14888</v>
       </c>
       <c r="K24">
         <v>30</v>
       </c>
       <c r="L24">
-        <v>6791.1</v>
+        <v>2309.4</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N24">
-        <v>46.7</v>
+        <v>26.7</v>
       </c>
       <c r="O24">
-        <v>-0.3</v>
+        <v>-0.8</v>
       </c>
       <c r="P24">
-        <v>19617</v>
+        <v>11090</v>
       </c>
       <c r="Q24">
-        <v>653.9</v>
+        <v>369.7</v>
       </c>
       <c r="R24">
-        <v>1948.9</v>
+        <v>1899.8</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -2301,61 +3117,100 @@
         <v>0</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="W24">
-        <v>6887</v>
+        <v>10421</v>
       </c>
       <c r="X24">
         <v>30</v>
       </c>
       <c r="Y24">
+        <v>1386.2</v>
+      </c>
+      <c r="Z24">
+        <v>8</v>
+      </c>
+      <c r="AA24">
+        <v>26.7</v>
+      </c>
+      <c r="AB24">
+        <v>-0.8</v>
+      </c>
+      <c r="AC24">
+        <v>19617</v>
+      </c>
+      <c r="AD24">
+        <v>653.9</v>
+      </c>
+      <c r="AE24">
+        <v>1948.9</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>6887</v>
+      </c>
+      <c r="AK24">
+        <v>30</v>
+      </c>
+      <c r="AL24">
         <v>4904.2</v>
       </c>
-      <c r="Z24">
+      <c r="AM24">
         <v>4</v>
       </c>
-      <c r="AA24">
+      <c r="AN24">
         <v>13.3</v>
       </c>
-      <c r="AB24">
+      <c r="AO24">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:41">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25">
-        <v>4917</v>
+        <v>3685</v>
       </c>
       <c r="D25">
-        <v>1229.2</v>
+        <v>921.2</v>
       </c>
       <c r="E25">
-        <v>928.1</v>
+        <v>601</v>
       </c>
       <c r="F25">
-        <v>549</v>
+        <v>435</v>
       </c>
       <c r="G25">
-        <v>609.8</v>
+        <v>531</v>
       </c>
       <c r="H25">
-        <v>906</v>
+        <v>740.5</v>
       </c>
       <c r="I25">
-        <v>1525.5</v>
+        <v>1130.8</v>
       </c>
       <c r="J25">
-        <v>2556</v>
+        <v>1769</v>
       </c>
       <c r="K25">
         <v>4</v>
       </c>
       <c r="L25">
-        <v>1229.2</v>
+        <v>921.2</v>
       </c>
       <c r="M25">
         <v>4</v>
@@ -2364,37 +3219,37 @@
         <v>100</v>
       </c>
       <c r="O25">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="P25">
-        <v>3189</v>
+        <v>1229</v>
       </c>
       <c r="Q25">
-        <v>797.2</v>
+        <v>307.2</v>
       </c>
       <c r="R25">
-        <v>344.2</v>
+        <v>329.4</v>
       </c>
       <c r="S25">
-        <v>537</v>
+        <v>65</v>
       </c>
       <c r="T25">
-        <v>578.2</v>
+        <v>103.2</v>
       </c>
       <c r="U25">
-        <v>680</v>
+        <v>189.5</v>
       </c>
       <c r="V25">
-        <v>899</v>
+        <v>393.5</v>
       </c>
       <c r="W25">
-        <v>1292</v>
+        <v>785</v>
       </c>
       <c r="X25">
         <v>4</v>
       </c>
       <c r="Y25">
-        <v>797.2</v>
+        <v>307.2</v>
       </c>
       <c r="Z25">
         <v>4</v>
@@ -2403,22 +3258,61 @@
         <v>100</v>
       </c>
       <c r="AB25">
+        <v>1.8</v>
+      </c>
+      <c r="AC25">
+        <v>3189</v>
+      </c>
+      <c r="AD25">
+        <v>797.2</v>
+      </c>
+      <c r="AE25">
+        <v>344.2</v>
+      </c>
+      <c r="AF25">
+        <v>537</v>
+      </c>
+      <c r="AG25">
+        <v>578.2</v>
+      </c>
+      <c r="AH25">
+        <v>680</v>
+      </c>
+      <c r="AI25">
+        <v>899</v>
+      </c>
+      <c r="AJ25">
+        <v>1292</v>
+      </c>
+      <c r="AK25">
+        <v>4</v>
+      </c>
+      <c r="AL25">
+        <v>797.2</v>
+      </c>
+      <c r="AM25">
+        <v>4</v>
+      </c>
+      <c r="AN25">
+        <v>100</v>
+      </c>
+      <c r="AO25">
         <v>2.3</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:41">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26">
-        <v>1775</v>
+        <v>1444</v>
       </c>
       <c r="D26">
-        <v>253.6</v>
+        <v>206.3</v>
       </c>
       <c r="E26">
-        <v>446.1</v>
+        <v>363.1</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2430,16 +3324,16 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>351</v>
+        <v>285</v>
       </c>
       <c r="J26">
-        <v>1073</v>
+        <v>874</v>
       </c>
       <c r="K26">
         <v>7</v>
       </c>
       <c r="L26">
-        <v>887.5</v>
+        <v>722</v>
       </c>
       <c r="M26">
         <v>2</v>
@@ -2448,100 +3342,139 @@
         <v>28.6</v>
       </c>
       <c r="O26">
-        <v>-1</v>
+        <v>-0.7</v>
       </c>
       <c r="P26">
-        <v>3602</v>
+        <v>326</v>
       </c>
       <c r="Q26">
-        <v>514.6</v>
+        <v>46.6</v>
       </c>
       <c r="R26">
-        <v>263</v>
+        <v>82.2</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>469</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>615</v>
+        <v>63.5</v>
       </c>
       <c r="W26">
-        <v>858</v>
+        <v>199</v>
       </c>
       <c r="X26">
         <v>7</v>
       </c>
       <c r="Y26">
+        <v>163</v>
+      </c>
+      <c r="Z26">
+        <v>2</v>
+      </c>
+      <c r="AA26">
+        <v>28.6</v>
+      </c>
+      <c r="AB26">
+        <v>-0.7</v>
+      </c>
+      <c r="AC26">
+        <v>3602</v>
+      </c>
+      <c r="AD26">
+        <v>514.6</v>
+      </c>
+      <c r="AE26">
+        <v>263</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>469</v>
+      </c>
+      <c r="AH26">
+        <v>576</v>
+      </c>
+      <c r="AI26">
+        <v>615</v>
+      </c>
+      <c r="AJ26">
+        <v>858</v>
+      </c>
+      <c r="AK26">
+        <v>7</v>
+      </c>
+      <c r="AL26">
         <v>600.3</v>
       </c>
-      <c r="Z26">
+      <c r="AM26">
         <v>6</v>
       </c>
-      <c r="AA26">
+      <c r="AN26">
         <v>85.7</v>
       </c>
-      <c r="AB26">
+      <c r="AO26">
         <v>1.8</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:41">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27">
-        <v>39191</v>
+        <v>16398</v>
       </c>
       <c r="D27">
-        <v>1351.4</v>
+        <v>565.4</v>
       </c>
       <c r="E27">
-        <v>3683.8</v>
+        <v>1113.2</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="I27">
-        <v>851</v>
+        <v>666</v>
       </c>
       <c r="J27">
-        <v>19355</v>
+        <v>5535</v>
       </c>
       <c r="K27">
         <v>29</v>
       </c>
       <c r="L27">
-        <v>1781.4</v>
+        <v>819.9</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N27">
-        <v>75.90000000000001</v>
+        <v>69</v>
       </c>
       <c r="O27">
         <v>0.7</v>
       </c>
       <c r="P27">
-        <v>7966</v>
+        <v>3399</v>
       </c>
       <c r="Q27">
-        <v>274.7</v>
+        <v>117.2</v>
       </c>
       <c r="R27">
-        <v>540.2</v>
+        <v>207.5</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -2550,43 +3483,82 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="V27">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="W27">
-        <v>2410</v>
+        <v>915</v>
       </c>
       <c r="X27">
         <v>29</v>
       </c>
       <c r="Y27">
+        <v>178.9</v>
+      </c>
+      <c r="Z27">
+        <v>19</v>
+      </c>
+      <c r="AA27">
+        <v>65.5</v>
+      </c>
+      <c r="AB27">
+        <v>0.6</v>
+      </c>
+      <c r="AC27">
+        <v>7966</v>
+      </c>
+      <c r="AD27">
+        <v>274.7</v>
+      </c>
+      <c r="AE27">
+        <v>540.2</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>419</v>
+      </c>
+      <c r="AJ27">
+        <v>2410</v>
+      </c>
+      <c r="AK27">
+        <v>29</v>
+      </c>
+      <c r="AL27">
         <v>796.6</v>
       </c>
-      <c r="Z27">
+      <c r="AM27">
         <v>10</v>
       </c>
-      <c r="AA27">
+      <c r="AN27">
         <v>34.5</v>
       </c>
-      <c r="AB27">
+      <c r="AO27">
         <v>-0</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:41">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28">
-        <v>6791</v>
+        <v>3739</v>
       </c>
       <c r="D28">
-        <v>485.1</v>
+        <v>267.1</v>
       </c>
       <c r="E28">
-        <v>866.5</v>
+        <v>589.4</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2595,37 +3567,37 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>9.5</v>
+        <v>2.5</v>
       </c>
       <c r="I28">
-        <v>702.5</v>
+        <v>40.5</v>
       </c>
       <c r="J28">
-        <v>2704</v>
+        <v>2059</v>
       </c>
       <c r="K28">
         <v>14</v>
       </c>
       <c r="L28">
-        <v>848.9</v>
+        <v>534.1</v>
       </c>
       <c r="M28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N28">
-        <v>57.1</v>
+        <v>50</v>
       </c>
       <c r="O28">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>10734</v>
+        <v>1177</v>
       </c>
       <c r="Q28">
-        <v>766.7</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="R28">
-        <v>2026.5</v>
+        <v>195.6</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -2637,79 +3609,118 @@
         <v>0</v>
       </c>
       <c r="V28">
-        <v>487.5</v>
+        <v>15.8</v>
       </c>
       <c r="W28">
-        <v>7664</v>
+        <v>637</v>
       </c>
       <c r="X28">
         <v>14</v>
       </c>
       <c r="Y28">
+        <v>196.2</v>
+      </c>
+      <c r="Z28">
+        <v>6</v>
+      </c>
+      <c r="AA28">
+        <v>42.9</v>
+      </c>
+      <c r="AB28">
+        <v>-0.2</v>
+      </c>
+      <c r="AC28">
+        <v>10734</v>
+      </c>
+      <c r="AD28">
+        <v>766.7</v>
+      </c>
+      <c r="AE28">
+        <v>2026.5</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>487.5</v>
+      </c>
+      <c r="AJ28">
+        <v>7664</v>
+      </c>
+      <c r="AK28">
+        <v>14</v>
+      </c>
+      <c r="AL28">
         <v>2146.8</v>
       </c>
-      <c r="Z28">
+      <c r="AM28">
         <v>5</v>
       </c>
-      <c r="AA28">
+      <c r="AN28">
         <v>35.7</v>
       </c>
-      <c r="AB28">
+      <c r="AO28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:41">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29">
-        <v>28111</v>
+        <v>2475</v>
       </c>
       <c r="D29">
-        <v>9370.299999999999</v>
+        <v>825</v>
       </c>
       <c r="E29">
-        <v>13576.6</v>
+        <v>1428.9</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>1585.5</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>3171</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>14055.5</v>
+        <v>1237.5</v>
       </c>
       <c r="J29">
-        <v>24940</v>
+        <v>2475</v>
       </c>
       <c r="K29">
         <v>3</v>
       </c>
       <c r="L29">
-        <v>14055.5</v>
+        <v>2475</v>
       </c>
       <c r="M29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>66.7</v>
+        <v>33.3</v>
       </c>
       <c r="O29">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="P29">
-        <v>786</v>
+        <v>692</v>
       </c>
       <c r="Q29">
-        <v>262</v>
+        <v>230.7</v>
       </c>
       <c r="R29">
-        <v>453.8</v>
+        <v>399.5</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -2721,16 +3732,16 @@
         <v>0</v>
       </c>
       <c r="V29">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="W29">
-        <v>786</v>
+        <v>692</v>
       </c>
       <c r="X29">
         <v>3</v>
       </c>
       <c r="Y29">
-        <v>786</v>
+        <v>692</v>
       </c>
       <c r="Z29">
         <v>1</v>
@@ -2739,40 +3750,79 @@
         <v>33.3</v>
       </c>
       <c r="AB29">
+        <v>-0.5</v>
+      </c>
+      <c r="AC29">
+        <v>786</v>
+      </c>
+      <c r="AD29">
+        <v>262</v>
+      </c>
+      <c r="AE29">
+        <v>453.8</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>393</v>
+      </c>
+      <c r="AJ29">
+        <v>786</v>
+      </c>
+      <c r="AK29">
+        <v>3</v>
+      </c>
+      <c r="AL29">
+        <v>786</v>
+      </c>
+      <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>33.3</v>
+      </c>
+      <c r="AO29">
         <v>-0</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:41">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="D30">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="F30">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="G30">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="H30">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="I30">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="J30">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -2781,34 +3831,34 @@
         <v>100</v>
       </c>
       <c r="O30">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="P30">
-        <v>794</v>
+        <v>75</v>
       </c>
       <c r="Q30">
-        <v>794</v>
+        <v>75</v>
       </c>
       <c r="S30">
-        <v>794</v>
+        <v>75</v>
       </c>
       <c r="T30">
-        <v>794</v>
+        <v>75</v>
       </c>
       <c r="U30">
-        <v>794</v>
+        <v>75</v>
       </c>
       <c r="V30">
-        <v>794</v>
+        <v>75</v>
       </c>
       <c r="W30">
-        <v>794</v>
+        <v>75</v>
       </c>
       <c r="X30">
         <v>1</v>
       </c>
       <c r="Y30">
-        <v>794</v>
+        <v>75</v>
       </c>
       <c r="Z30">
         <v>1</v>
@@ -2817,22 +3867,58 @@
         <v>100</v>
       </c>
       <c r="AB30">
+        <v>1.8</v>
+      </c>
+      <c r="AC30">
+        <v>794</v>
+      </c>
+      <c r="AD30">
+        <v>794</v>
+      </c>
+      <c r="AF30">
+        <v>794</v>
+      </c>
+      <c r="AG30">
+        <v>794</v>
+      </c>
+      <c r="AH30">
+        <v>794</v>
+      </c>
+      <c r="AI30">
+        <v>794</v>
+      </c>
+      <c r="AJ30">
+        <v>794</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>794</v>
+      </c>
+      <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>100</v>
+      </c>
+      <c r="AO30">
         <v>2.3</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:41">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31">
-        <v>5215</v>
+        <v>5033</v>
       </c>
       <c r="D31">
-        <v>869.2</v>
+        <v>838.8</v>
       </c>
       <c r="E31">
-        <v>2083.3</v>
+        <v>2012.4</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2844,16 +3930,16 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>70.5</v>
+        <v>65.2</v>
       </c>
       <c r="J31">
-        <v>5121</v>
+        <v>4946</v>
       </c>
       <c r="K31">
         <v>6</v>
       </c>
       <c r="L31">
-        <v>2607.5</v>
+        <v>2516.5</v>
       </c>
       <c r="M31">
         <v>2</v>
@@ -2862,16 +3948,16 @@
         <v>33.3</v>
       </c>
       <c r="O31">
-        <v>-0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>65.2</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -2883,39 +3969,78 @@
         <v>0</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="X31">
         <v>6</v>
       </c>
+      <c r="Y31">
+        <v>84</v>
+      </c>
       <c r="Z31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="AB31">
+        <v>-0.5</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>6</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:41">
       <c r="A32" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C32">
-        <v>244783</v>
+        <v>93400</v>
       </c>
       <c r="D32">
-        <v>1942.7</v>
+        <v>741.3</v>
       </c>
       <c r="E32">
-        <v>6583.5</v>
+        <v>1391.3</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2924,37 +4049,37 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>1752.5</v>
+        <v>869.8</v>
       </c>
       <c r="J32">
-        <v>68140</v>
+        <v>7295</v>
       </c>
       <c r="K32">
         <v>126</v>
       </c>
       <c r="L32">
-        <v>3599.8</v>
+        <v>1556.7</v>
       </c>
       <c r="M32">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N32">
-        <v>54</v>
+        <v>47.6</v>
       </c>
       <c r="O32">
-        <v>-0.1</v>
+        <v>-0</v>
       </c>
       <c r="P32">
-        <v>37734</v>
+        <v>27306</v>
       </c>
       <c r="Q32">
-        <v>299.5</v>
+        <v>216.7</v>
       </c>
       <c r="R32">
-        <v>788.3</v>
+        <v>657.6</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -2966,40 +4091,79 @@
         <v>0</v>
       </c>
       <c r="V32">
-        <v>56.2</v>
+        <v>152.5</v>
       </c>
       <c r="W32">
-        <v>6448</v>
+        <v>6050</v>
       </c>
       <c r="X32">
         <v>126</v>
       </c>
       <c r="Y32">
+        <v>455.1</v>
+      </c>
+      <c r="Z32">
+        <v>60</v>
+      </c>
+      <c r="AA32">
+        <v>47.6</v>
+      </c>
+      <c r="AB32">
+        <v>-0</v>
+      </c>
+      <c r="AC32">
+        <v>37734</v>
+      </c>
+      <c r="AD32">
+        <v>299.5</v>
+      </c>
+      <c r="AE32">
+        <v>788.3</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>56.2</v>
+      </c>
+      <c r="AJ32">
+        <v>6448</v>
+      </c>
+      <c r="AK32">
+        <v>126</v>
+      </c>
+      <c r="AL32">
         <v>1109.8</v>
       </c>
-      <c r="Z32">
+      <c r="AM32">
         <v>34</v>
       </c>
-      <c r="AA32">
+      <c r="AN32">
         <v>27</v>
       </c>
-      <c r="AB32">
+      <c r="AO32">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:41">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33">
-        <v>28944</v>
+        <v>18932</v>
       </c>
       <c r="D33">
-        <v>2894.4</v>
+        <v>1893.2</v>
       </c>
       <c r="E33">
-        <v>4536.9</v>
+        <v>2959.4</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -3008,19 +4172,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>486.5</v>
+        <v>405.5</v>
       </c>
       <c r="I33">
-        <v>5088.2</v>
+        <v>3230.5</v>
       </c>
       <c r="J33">
-        <v>12630</v>
+        <v>8541</v>
       </c>
       <c r="K33">
         <v>10</v>
       </c>
       <c r="L33">
-        <v>4824</v>
+        <v>3155.3</v>
       </c>
       <c r="M33">
         <v>6</v>
@@ -3029,16 +4193,16 @@
         <v>60</v>
       </c>
       <c r="O33">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="P33">
-        <v>4134</v>
+        <v>9929</v>
       </c>
       <c r="Q33">
-        <v>413.4</v>
+        <v>992.9</v>
       </c>
       <c r="R33">
-        <v>683.5</v>
+        <v>1582</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -3047,43 +4211,82 @@
         <v>0</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="V33">
-        <v>752.2</v>
+        <v>1834.8</v>
       </c>
       <c r="W33">
-        <v>1622</v>
+        <v>4057</v>
       </c>
       <c r="X33">
         <v>10</v>
       </c>
       <c r="Y33">
+        <v>1654.8</v>
+      </c>
+      <c r="Z33">
+        <v>6</v>
+      </c>
+      <c r="AA33">
+        <v>60</v>
+      </c>
+      <c r="AB33">
+        <v>0.4</v>
+      </c>
+      <c r="AC33">
+        <v>4134</v>
+      </c>
+      <c r="AD33">
+        <v>413.4</v>
+      </c>
+      <c r="AE33">
+        <v>683.5</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>752.2</v>
+      </c>
+      <c r="AJ33">
+        <v>1622</v>
+      </c>
+      <c r="AK33">
+        <v>10</v>
+      </c>
+      <c r="AL33">
         <v>1378</v>
       </c>
-      <c r="Z33">
+      <c r="AM33">
         <v>3</v>
       </c>
-      <c r="AA33">
+      <c r="AN33">
         <v>30</v>
       </c>
-      <c r="AB33">
+      <c r="AO33">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:41">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34">
-        <v>7239</v>
+        <v>650</v>
       </c>
       <c r="D34">
-        <v>381</v>
+        <v>34.2</v>
       </c>
       <c r="E34">
-        <v>1491.6</v>
+        <v>149.1</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -3098,31 +4301,31 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>6501</v>
+        <v>650</v>
       </c>
       <c r="K34">
         <v>19</v>
       </c>
       <c r="L34">
-        <v>3619.5</v>
+        <v>650</v>
       </c>
       <c r="M34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>10.5</v>
+        <v>5.3</v>
       </c>
       <c r="O34">
-        <v>-1.6</v>
+        <v>-1.5</v>
       </c>
       <c r="P34">
-        <v>672</v>
+        <v>86</v>
       </c>
       <c r="Q34">
-        <v>35.4</v>
+        <v>4.5</v>
       </c>
       <c r="R34">
-        <v>107.8</v>
+        <v>19.7</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -3137,37 +4340,76 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>395</v>
+        <v>86</v>
       </c>
       <c r="X34">
         <v>19</v>
       </c>
       <c r="Y34">
+        <v>86</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <v>5.3</v>
+      </c>
+      <c r="AB34">
+        <v>-1.5</v>
+      </c>
+      <c r="AC34">
+        <v>672</v>
+      </c>
+      <c r="AD34">
+        <v>35.4</v>
+      </c>
+      <c r="AE34">
+        <v>107.8</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>395</v>
+      </c>
+      <c r="AK34">
+        <v>19</v>
+      </c>
+      <c r="AL34">
         <v>336</v>
       </c>
-      <c r="Z34">
+      <c r="AM34">
         <v>2</v>
       </c>
-      <c r="AA34">
+      <c r="AN34">
         <v>10.5</v>
       </c>
-      <c r="AB34">
+      <c r="AO34">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:41">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
-        <v>12862</v>
+        <v>9357</v>
       </c>
       <c r="D35">
-        <v>494.7</v>
+        <v>359.9</v>
       </c>
       <c r="E35">
-        <v>764.7</v>
+        <v>531.5</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -3176,19 +4418,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>34.5</v>
+        <v>21.5</v>
       </c>
       <c r="I35">
-        <v>694.2</v>
+        <v>563</v>
       </c>
       <c r="J35">
-        <v>2476</v>
+        <v>1662</v>
       </c>
       <c r="K35">
         <v>26</v>
       </c>
       <c r="L35">
-        <v>857.5</v>
+        <v>623.8</v>
       </c>
       <c r="M35">
         <v>15</v>
@@ -3197,16 +4439,16 @@
         <v>57.7</v>
       </c>
       <c r="O35">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="P35">
-        <v>5471</v>
+        <v>3480</v>
       </c>
       <c r="Q35">
-        <v>210.4</v>
+        <v>133.8</v>
       </c>
       <c r="R35">
-        <v>476.7</v>
+        <v>257.6</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -3215,43 +4457,82 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="V35">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="W35">
-        <v>1716</v>
+        <v>809</v>
       </c>
       <c r="X35">
         <v>26</v>
       </c>
       <c r="Y35">
+        <v>232</v>
+      </c>
+      <c r="Z35">
+        <v>15</v>
+      </c>
+      <c r="AA35">
+        <v>57.7</v>
+      </c>
+      <c r="AB35">
+        <v>0.3</v>
+      </c>
+      <c r="AC35">
+        <v>5471</v>
+      </c>
+      <c r="AD35">
+        <v>210.4</v>
+      </c>
+      <c r="AE35">
+        <v>476.7</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>129</v>
+      </c>
+      <c r="AJ35">
+        <v>1716</v>
+      </c>
+      <c r="AK35">
+        <v>26</v>
+      </c>
+      <c r="AL35">
         <v>781.6</v>
       </c>
-      <c r="Z35">
+      <c r="AM35">
         <v>7</v>
       </c>
-      <c r="AA35">
+      <c r="AN35">
         <v>26.9</v>
       </c>
-      <c r="AB35">
+      <c r="AO35">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:41">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C36">
-        <v>227396</v>
+        <v>133458</v>
       </c>
       <c r="D36">
-        <v>1062.6</v>
+        <v>623.6</v>
       </c>
       <c r="E36">
-        <v>4563</v>
+        <v>3343.3</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -3260,37 +4541,37 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>55</v>
+        <v>24.5</v>
       </c>
       <c r="I36">
-        <v>674.8</v>
+        <v>513</v>
       </c>
       <c r="J36">
-        <v>56317</v>
+        <v>47580</v>
       </c>
       <c r="K36">
         <v>214</v>
       </c>
       <c r="L36">
-        <v>1735.8</v>
+        <v>1093.9</v>
       </c>
       <c r="M36">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="N36">
-        <v>61.2</v>
+        <v>57</v>
       </c>
       <c r="O36">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="P36">
-        <v>44161</v>
+        <v>31245</v>
       </c>
       <c r="Q36">
-        <v>206.4</v>
+        <v>146</v>
       </c>
       <c r="R36">
-        <v>498.1</v>
+        <v>682.3</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -3299,43 +4580,82 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V36">
-        <v>79.5</v>
+        <v>89.2</v>
       </c>
       <c r="W36">
-        <v>3642</v>
+        <v>8505</v>
       </c>
       <c r="X36">
         <v>214</v>
       </c>
       <c r="Y36">
+        <v>254</v>
+      </c>
+      <c r="Z36">
+        <v>123</v>
+      </c>
+      <c r="AA36">
+        <v>57.5</v>
+      </c>
+      <c r="AB36">
+        <v>0.3</v>
+      </c>
+      <c r="AC36">
+        <v>44161</v>
+      </c>
+      <c r="AD36">
+        <v>206.4</v>
+      </c>
+      <c r="AE36">
+        <v>498.1</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>79.5</v>
+      </c>
+      <c r="AJ36">
+        <v>3642</v>
+      </c>
+      <c r="AK36">
+        <v>214</v>
+      </c>
+      <c r="AL36">
         <v>774.8</v>
       </c>
-      <c r="Z36">
+      <c r="AM36">
         <v>57</v>
       </c>
-      <c r="AA36">
+      <c r="AN36">
         <v>26.6</v>
       </c>
-      <c r="AB36">
+      <c r="AO36">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:41">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C37">
-        <v>18507</v>
+        <v>13166</v>
       </c>
       <c r="D37">
-        <v>336.5</v>
+        <v>239.4</v>
       </c>
       <c r="E37">
-        <v>888.2</v>
+        <v>723.2</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -3344,37 +4664,37 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>294.5</v>
+        <v>217</v>
       </c>
       <c r="J37">
-        <v>5635</v>
+        <v>5095</v>
       </c>
       <c r="K37">
         <v>55</v>
       </c>
       <c r="L37">
-        <v>597</v>
+        <v>487.6</v>
       </c>
       <c r="M37">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N37">
-        <v>56.4</v>
+        <v>49.1</v>
       </c>
       <c r="O37">
         <v>0</v>
       </c>
       <c r="P37">
-        <v>49239</v>
+        <v>4172</v>
       </c>
       <c r="Q37">
-        <v>895.3</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="R37">
-        <v>4965</v>
+        <v>251.5</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -3383,43 +4703,82 @@
         <v>0</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V37">
-        <v>327</v>
+        <v>44.5</v>
       </c>
       <c r="W37">
-        <v>36858</v>
+        <v>1744</v>
       </c>
       <c r="X37">
         <v>55</v>
       </c>
       <c r="Y37">
+        <v>139.1</v>
+      </c>
+      <c r="Z37">
+        <v>30</v>
+      </c>
+      <c r="AA37">
+        <v>54.5</v>
+      </c>
+      <c r="AB37">
+        <v>0.2</v>
+      </c>
+      <c r="AC37">
+        <v>49239</v>
+      </c>
+      <c r="AD37">
+        <v>895.3</v>
+      </c>
+      <c r="AE37">
+        <v>4965</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>327</v>
+      </c>
+      <c r="AJ37">
+        <v>36858</v>
+      </c>
+      <c r="AK37">
+        <v>55</v>
+      </c>
+      <c r="AL37">
         <v>3077.4</v>
       </c>
-      <c r="Z37">
+      <c r="AM37">
         <v>16</v>
       </c>
-      <c r="AA37">
+      <c r="AN37">
         <v>29.1</v>
       </c>
-      <c r="AB37">
+      <c r="AO37">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:41">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C38">
-        <v>6751</v>
+        <v>5242</v>
       </c>
       <c r="D38">
-        <v>397.1</v>
+        <v>308.4</v>
       </c>
       <c r="E38">
-        <v>750.2</v>
+        <v>586.5</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -3431,34 +4790,34 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="J38">
-        <v>2098</v>
+        <v>1745</v>
       </c>
       <c r="K38">
         <v>17</v>
       </c>
       <c r="L38">
-        <v>843.9</v>
+        <v>748.9</v>
       </c>
       <c r="M38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N38">
-        <v>47.1</v>
+        <v>41.2</v>
       </c>
       <c r="O38">
         <v>-0.3</v>
       </c>
       <c r="P38">
-        <v>2823</v>
+        <v>1513</v>
       </c>
       <c r="Q38">
-        <v>166.1</v>
+        <v>89</v>
       </c>
       <c r="R38">
-        <v>316.8</v>
+        <v>199.8</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -3470,79 +4829,118 @@
         <v>0</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="W38">
-        <v>849</v>
+        <v>724</v>
       </c>
       <c r="X38">
         <v>17</v>
       </c>
       <c r="Y38">
+        <v>189.1</v>
+      </c>
+      <c r="Z38">
+        <v>8</v>
+      </c>
+      <c r="AA38">
+        <v>47.1</v>
+      </c>
+      <c r="AB38">
+        <v>-0.1</v>
+      </c>
+      <c r="AC38">
+        <v>2823</v>
+      </c>
+      <c r="AD38">
+        <v>166.1</v>
+      </c>
+      <c r="AE38">
+        <v>316.8</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>849</v>
+      </c>
+      <c r="AK38">
+        <v>17</v>
+      </c>
+      <c r="AL38">
         <v>705.8</v>
       </c>
-      <c r="Z38">
+      <c r="AM38">
         <v>4</v>
       </c>
-      <c r="AA38">
+      <c r="AN38">
         <v>23.5</v>
       </c>
-      <c r="AB38">
+      <c r="AO38">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:41">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C39">
-        <v>98249</v>
+        <v>40940</v>
       </c>
       <c r="D39">
-        <v>4465.9</v>
+        <v>1860.9</v>
       </c>
       <c r="E39">
-        <v>5975.6</v>
+        <v>2537.7</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>2615.5</v>
+        <v>978</v>
       </c>
       <c r="I39">
-        <v>4023</v>
+        <v>2382</v>
       </c>
       <c r="J39">
-        <v>18528</v>
+        <v>8682</v>
       </c>
       <c r="K39">
         <v>22</v>
       </c>
       <c r="L39">
-        <v>5779.4</v>
+        <v>2924.3</v>
       </c>
       <c r="M39">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N39">
-        <v>77.3</v>
+        <v>63.6</v>
       </c>
       <c r="O39">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="P39">
-        <v>16518</v>
+        <v>23376</v>
       </c>
       <c r="Q39">
-        <v>750.8</v>
+        <v>1062.5</v>
       </c>
       <c r="R39">
-        <v>1327.9</v>
+        <v>2805.7</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -3551,43 +4949,82 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>112.5</v>
       </c>
       <c r="V39">
-        <v>1291.5</v>
+        <v>457.5</v>
       </c>
       <c r="W39">
-        <v>5316</v>
+        <v>9692</v>
       </c>
       <c r="X39">
         <v>22</v>
       </c>
       <c r="Y39">
+        <v>1669.7</v>
+      </c>
+      <c r="Z39">
+        <v>14</v>
+      </c>
+      <c r="AA39">
+        <v>63.6</v>
+      </c>
+      <c r="AB39">
+        <v>0.5</v>
+      </c>
+      <c r="AC39">
+        <v>16518</v>
+      </c>
+      <c r="AD39">
+        <v>750.8</v>
+      </c>
+      <c r="AE39">
+        <v>1327.9</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>1291.5</v>
+      </c>
+      <c r="AJ39">
+        <v>5316</v>
+      </c>
+      <c r="AK39">
+        <v>22</v>
+      </c>
+      <c r="AL39">
         <v>1651.8</v>
       </c>
-      <c r="Z39">
+      <c r="AM39">
         <v>10</v>
       </c>
-      <c r="AA39">
+      <c r="AN39">
         <v>45.5</v>
       </c>
-      <c r="AB39">
+      <c r="AO39">
         <v>0.4</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:41">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="D40">
-        <v>82.8</v>
+        <v>79.2</v>
       </c>
       <c r="E40">
-        <v>185.1</v>
+        <v>177.1</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -3602,13 +5039,13 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="K40">
         <v>5</v>
       </c>
       <c r="L40">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -3617,16 +5054,16 @@
         <v>20</v>
       </c>
       <c r="O40">
-        <v>-1.3</v>
+        <v>-1</v>
       </c>
       <c r="P40">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="Q40">
-        <v>30.2</v>
+        <v>3.6</v>
       </c>
       <c r="R40">
-        <v>67.5</v>
+        <v>8</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -3641,13 +5078,13 @@
         <v>0</v>
       </c>
       <c r="W40">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="X40">
         <v>5</v>
       </c>
       <c r="Y40">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="Z40">
         <v>1</v>
@@ -3656,147 +5093,219 @@
         <v>20</v>
       </c>
       <c r="AB40">
+        <v>-1</v>
+      </c>
+      <c r="AC40">
+        <v>151</v>
+      </c>
+      <c r="AD40">
+        <v>30.2</v>
+      </c>
+      <c r="AE40">
+        <v>67.5</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>151</v>
+      </c>
+      <c r="AK40">
+        <v>5</v>
+      </c>
+      <c r="AL40">
+        <v>151</v>
+      </c>
+      <c r="AM40">
+        <v>1</v>
+      </c>
+      <c r="AN40">
+        <v>20</v>
+      </c>
+      <c r="AO40">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:41">
       <c r="A41" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C41">
-        <v>8415</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>2805</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>2429.3</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>2095</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>4190</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>4207.5</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>4225</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>3</v>
       </c>
-      <c r="L41">
-        <v>4207.5</v>
-      </c>
       <c r="M41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>66.7</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>0.4</v>
+        <v>-1.7</v>
       </c>
       <c r="P41">
-        <v>4826</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>1608.7</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>1394.1</v>
+        <v>0</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>1181</v>
+        <v>0</v>
       </c>
       <c r="U41">
-        <v>2362</v>
+        <v>0</v>
       </c>
       <c r="V41">
-        <v>2413</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>2464</v>
+        <v>0</v>
       </c>
       <c r="X41">
         <v>3</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>-1.7</v>
+      </c>
+      <c r="AC41">
+        <v>4826</v>
+      </c>
+      <c r="AD41">
+        <v>1608.7</v>
+      </c>
+      <c r="AE41">
+        <v>1394.1</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>1181</v>
+      </c>
+      <c r="AH41">
+        <v>2362</v>
+      </c>
+      <c r="AI41">
         <v>2413</v>
       </c>
-      <c r="Z41">
+      <c r="AJ41">
+        <v>2464</v>
+      </c>
+      <c r="AK41">
+        <v>3</v>
+      </c>
+      <c r="AL41">
+        <v>2413</v>
+      </c>
+      <c r="AM41">
         <v>2</v>
       </c>
-      <c r="AA41">
+      <c r="AN41">
         <v>66.7</v>
       </c>
-      <c r="AB41">
+      <c r="AO41">
         <v>1.1</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:41">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C42">
-        <v>186703</v>
+        <v>37939</v>
       </c>
       <c r="D42">
-        <v>3590.4</v>
+        <v>729.6</v>
       </c>
       <c r="E42">
-        <v>7388</v>
+        <v>1016.9</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>44.8</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>1087.5</v>
+        <v>89</v>
       </c>
       <c r="I42">
-        <v>2674.5</v>
+        <v>1332</v>
       </c>
       <c r="J42">
-        <v>30621</v>
+        <v>3881</v>
       </c>
       <c r="K42">
         <v>52</v>
       </c>
       <c r="L42">
-        <v>4553.7</v>
+        <v>1223.8</v>
       </c>
       <c r="M42">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N42">
-        <v>78.8</v>
+        <v>59.6</v>
       </c>
       <c r="O42">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="P42">
-        <v>57537</v>
+        <v>4651</v>
       </c>
       <c r="Q42">
-        <v>1106.5</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="R42">
-        <v>2788.5</v>
+        <v>133.9</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -3805,43 +5314,82 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V42">
-        <v>551.5</v>
+        <v>161.5</v>
       </c>
       <c r="W42">
-        <v>13336</v>
+        <v>529</v>
       </c>
       <c r="X42">
         <v>52</v>
       </c>
       <c r="Y42">
+        <v>145.3</v>
+      </c>
+      <c r="Z42">
+        <v>32</v>
+      </c>
+      <c r="AA42">
+        <v>61.5</v>
+      </c>
+      <c r="AB42">
+        <v>0.4</v>
+      </c>
+      <c r="AC42">
+        <v>57537</v>
+      </c>
+      <c r="AD42">
+        <v>1106.5</v>
+      </c>
+      <c r="AE42">
+        <v>2788.5</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>551.5</v>
+      </c>
+      <c r="AJ42">
+        <v>13336</v>
+      </c>
+      <c r="AK42">
+        <v>52</v>
+      </c>
+      <c r="AL42">
         <v>2501.6</v>
       </c>
-      <c r="Z42">
+      <c r="AM42">
         <v>23</v>
       </c>
-      <c r="AA42">
+      <c r="AN42">
         <v>44.2</v>
       </c>
-      <c r="AB42">
+      <c r="AO42">
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:41">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C43">
-        <v>18463</v>
+        <v>10404</v>
       </c>
       <c r="D43">
-        <v>2637.6</v>
+        <v>1486.3</v>
       </c>
       <c r="E43">
-        <v>3061.1</v>
+        <v>2322.1</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -3850,100 +5398,139 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>1035</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>5287</v>
+        <v>2305.5</v>
       </c>
       <c r="J43">
-        <v>6854</v>
+        <v>5793</v>
       </c>
       <c r="K43">
         <v>7</v>
       </c>
       <c r="L43">
-        <v>4615.8</v>
+        <v>3468</v>
       </c>
       <c r="M43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N43">
-        <v>57.1</v>
+        <v>42.9</v>
       </c>
       <c r="O43">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="P43">
-        <v>5438</v>
+        <v>1193</v>
       </c>
       <c r="Q43">
-        <v>776.9</v>
+        <v>170.4</v>
       </c>
       <c r="R43">
-        <v>592.9</v>
+        <v>345</v>
       </c>
       <c r="S43">
         <v>0</v>
       </c>
       <c r="T43">
-        <v>422.5</v>
+        <v>0</v>
       </c>
       <c r="U43">
-        <v>926</v>
+        <v>0</v>
       </c>
       <c r="V43">
-        <v>1008</v>
+        <v>127.5</v>
       </c>
       <c r="W43">
-        <v>1651</v>
+        <v>938</v>
       </c>
       <c r="X43">
         <v>7</v>
       </c>
       <c r="Y43">
+        <v>397.7</v>
+      </c>
+      <c r="Z43">
+        <v>3</v>
+      </c>
+      <c r="AA43">
+        <v>42.9</v>
+      </c>
+      <c r="AB43">
+        <v>-0.2</v>
+      </c>
+      <c r="AC43">
+        <v>5438</v>
+      </c>
+      <c r="AD43">
+        <v>776.9</v>
+      </c>
+      <c r="AE43">
+        <v>592.9</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>422.5</v>
+      </c>
+      <c r="AH43">
+        <v>926</v>
+      </c>
+      <c r="AI43">
+        <v>1008</v>
+      </c>
+      <c r="AJ43">
+        <v>1651</v>
+      </c>
+      <c r="AK43">
+        <v>7</v>
+      </c>
+      <c r="AL43">
         <v>1087.6</v>
       </c>
-      <c r="Z43">
+      <c r="AM43">
         <v>5</v>
       </c>
-      <c r="AA43">
+      <c r="AN43">
         <v>71.40000000000001</v>
       </c>
-      <c r="AB43">
+      <c r="AO43">
         <v>1.3</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:41">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C44">
-        <v>856</v>
+        <v>548</v>
       </c>
       <c r="D44">
-        <v>856</v>
+        <v>548</v>
       </c>
       <c r="F44">
-        <v>856</v>
+        <v>548</v>
       </c>
       <c r="G44">
-        <v>856</v>
+        <v>548</v>
       </c>
       <c r="H44">
-        <v>856</v>
+        <v>548</v>
       </c>
       <c r="I44">
-        <v>856</v>
+        <v>548</v>
       </c>
       <c r="J44">
-        <v>856</v>
+        <v>548</v>
       </c>
       <c r="K44">
         <v>1</v>
       </c>
       <c r="L44">
-        <v>856</v>
+        <v>548</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -3952,34 +5539,34 @@
         <v>100</v>
       </c>
       <c r="O44">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="P44">
-        <v>577</v>
+        <v>304</v>
       </c>
       <c r="Q44">
-        <v>577</v>
+        <v>304</v>
       </c>
       <c r="S44">
-        <v>577</v>
+        <v>304</v>
       </c>
       <c r="T44">
-        <v>577</v>
+        <v>304</v>
       </c>
       <c r="U44">
-        <v>577</v>
+        <v>304</v>
       </c>
       <c r="V44">
-        <v>577</v>
+        <v>304</v>
       </c>
       <c r="W44">
-        <v>577</v>
+        <v>304</v>
       </c>
       <c r="X44">
         <v>1</v>
       </c>
       <c r="Y44">
-        <v>577</v>
+        <v>304</v>
       </c>
       <c r="Z44">
         <v>1</v>
@@ -3988,43 +5575,79 @@
         <v>100</v>
       </c>
       <c r="AB44">
+        <v>1.8</v>
+      </c>
+      <c r="AC44">
+        <v>577</v>
+      </c>
+      <c r="AD44">
+        <v>577</v>
+      </c>
+      <c r="AF44">
+        <v>577</v>
+      </c>
+      <c r="AG44">
+        <v>577</v>
+      </c>
+      <c r="AH44">
+        <v>577</v>
+      </c>
+      <c r="AI44">
+        <v>577</v>
+      </c>
+      <c r="AJ44">
+        <v>577</v>
+      </c>
+      <c r="AK44">
+        <v>1</v>
+      </c>
+      <c r="AL44">
+        <v>577</v>
+      </c>
+      <c r="AM44">
+        <v>1</v>
+      </c>
+      <c r="AN44">
+        <v>100</v>
+      </c>
+      <c r="AO44">
         <v>2.3</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:41">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C45">
-        <v>8780</v>
+        <v>7499</v>
       </c>
       <c r="D45">
-        <v>675.4</v>
+        <v>576.8</v>
       </c>
       <c r="E45">
-        <v>619.9</v>
+        <v>547.1</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="H45">
-        <v>591</v>
+        <v>496</v>
       </c>
       <c r="I45">
-        <v>1072</v>
+        <v>846</v>
       </c>
       <c r="J45">
-        <v>2104</v>
+        <v>1866</v>
       </c>
       <c r="K45">
         <v>13</v>
       </c>
       <c r="L45">
-        <v>878</v>
+        <v>749.9</v>
       </c>
       <c r="M45">
         <v>10</v>
@@ -4033,61 +5656,100 @@
         <v>76.90000000000001</v>
       </c>
       <c r="O45">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P45">
-        <v>3312</v>
+        <v>1275</v>
       </c>
       <c r="Q45">
-        <v>254.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="R45">
-        <v>234.1</v>
+        <v>93.5</v>
       </c>
       <c r="S45">
         <v>0</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U45">
-        <v>321</v>
+        <v>76</v>
       </c>
       <c r="V45">
-        <v>418</v>
+        <v>181</v>
       </c>
       <c r="W45">
-        <v>602</v>
+        <v>256</v>
       </c>
       <c r="X45">
         <v>13</v>
       </c>
       <c r="Y45">
+        <v>127.5</v>
+      </c>
+      <c r="Z45">
+        <v>10</v>
+      </c>
+      <c r="AA45">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="AB45">
+        <v>1</v>
+      </c>
+      <c r="AC45">
+        <v>3312</v>
+      </c>
+      <c r="AD45">
+        <v>254.8</v>
+      </c>
+      <c r="AE45">
+        <v>234.1</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>321</v>
+      </c>
+      <c r="AI45">
+        <v>418</v>
+      </c>
+      <c r="AJ45">
+        <v>602</v>
+      </c>
+      <c r="AK45">
+        <v>13</v>
+      </c>
+      <c r="AL45">
         <v>414</v>
       </c>
-      <c r="Z45">
+      <c r="AM45">
         <v>8</v>
       </c>
-      <c r="AA45">
+      <c r="AN45">
         <v>61.5</v>
       </c>
-      <c r="AB45">
+      <c r="AO45">
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:41">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C46">
-        <v>71646</v>
+        <v>27926</v>
       </c>
       <c r="D46">
-        <v>873.7</v>
+        <v>340.6</v>
       </c>
       <c r="E46">
-        <v>2932.4</v>
+        <v>823.6</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -4096,37 +5758,37 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>62</v>
+        <v>22.5</v>
       </c>
       <c r="I46">
-        <v>396.2</v>
+        <v>312.2</v>
       </c>
       <c r="J46">
-        <v>19670</v>
+        <v>4906</v>
       </c>
       <c r="K46">
         <v>82</v>
       </c>
       <c r="L46">
-        <v>1404.8</v>
+        <v>581.8</v>
       </c>
       <c r="M46">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N46">
-        <v>62.2</v>
+        <v>58.5</v>
       </c>
       <c r="O46">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="P46">
-        <v>20174</v>
+        <v>8285</v>
       </c>
       <c r="Q46">
-        <v>246</v>
+        <v>101</v>
       </c>
       <c r="R46">
-        <v>470</v>
+        <v>389.8</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -4135,43 +5797,82 @@
         <v>0</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V46">
-        <v>279.5</v>
+        <v>31.8</v>
       </c>
       <c r="W46">
-        <v>1957</v>
+        <v>3183</v>
       </c>
       <c r="X46">
         <v>82</v>
       </c>
       <c r="Y46">
+        <v>172.6</v>
+      </c>
+      <c r="Z46">
+        <v>48</v>
+      </c>
+      <c r="AA46">
+        <v>58.5</v>
+      </c>
+      <c r="AB46">
+        <v>0.3</v>
+      </c>
+      <c r="AC46">
+        <v>20174</v>
+      </c>
+      <c r="AD46">
+        <v>246</v>
+      </c>
+      <c r="AE46">
+        <v>470</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>279.5</v>
+      </c>
+      <c r="AJ46">
+        <v>1957</v>
+      </c>
+      <c r="AK46">
+        <v>82</v>
+      </c>
+      <c r="AL46">
         <v>630.4</v>
       </c>
-      <c r="Z46">
+      <c r="AM46">
         <v>32</v>
       </c>
-      <c r="AA46">
+      <c r="AN46">
         <v>39</v>
       </c>
-      <c r="AB46">
+      <c r="AO46">
         <v>0.2</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:41">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C47">
-        <v>14202</v>
+        <v>6689</v>
       </c>
       <c r="D47">
-        <v>458.1</v>
+        <v>215.8</v>
       </c>
       <c r="E47">
-        <v>1139.5</v>
+        <v>439</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -4180,37 +5881,37 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>216</v>
+        <v>117.5</v>
       </c>
       <c r="J47">
-        <v>5770</v>
+        <v>1624</v>
       </c>
       <c r="K47">
         <v>31</v>
       </c>
       <c r="L47">
-        <v>835.4</v>
+        <v>477.8</v>
       </c>
       <c r="M47">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N47">
-        <v>54.8</v>
+        <v>45.2</v>
       </c>
       <c r="O47">
-        <v>-0</v>
+        <v>-0.1</v>
       </c>
       <c r="P47">
-        <v>7670</v>
+        <v>1706</v>
       </c>
       <c r="Q47">
-        <v>247.4</v>
+        <v>55</v>
       </c>
       <c r="R47">
-        <v>682</v>
+        <v>153.4</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -4222,79 +5923,118 @@
         <v>0</v>
       </c>
       <c r="V47">
-        <v>64.5</v>
+        <v>21</v>
       </c>
       <c r="W47">
-        <v>3096</v>
+        <v>780</v>
       </c>
       <c r="X47">
         <v>31</v>
       </c>
       <c r="Y47">
+        <v>113.7</v>
+      </c>
+      <c r="Z47">
+        <v>15</v>
+      </c>
+      <c r="AA47">
+        <v>48.4</v>
+      </c>
+      <c r="AB47">
+        <v>-0</v>
+      </c>
+      <c r="AC47">
+        <v>7670</v>
+      </c>
+      <c r="AD47">
+        <v>247.4</v>
+      </c>
+      <c r="AE47">
+        <v>682</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>64.5</v>
+      </c>
+      <c r="AJ47">
+        <v>3096</v>
+      </c>
+      <c r="AK47">
+        <v>31</v>
+      </c>
+      <c r="AL47">
         <v>697.3</v>
       </c>
-      <c r="Z47">
+      <c r="AM47">
         <v>11</v>
       </c>
-      <c r="AA47">
+      <c r="AN47">
         <v>35.5</v>
       </c>
-      <c r="AB47">
+      <c r="AO47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:41">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C48">
-        <v>6071</v>
+        <v>459</v>
       </c>
       <c r="D48">
-        <v>1517.8</v>
+        <v>114.8</v>
       </c>
       <c r="E48">
-        <v>2726.9</v>
+        <v>209.3</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>24.8</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>237</v>
+        <v>15.5</v>
       </c>
       <c r="I48">
-        <v>1730</v>
+        <v>130.2</v>
       </c>
       <c r="J48">
-        <v>5597</v>
+        <v>428</v>
       </c>
       <c r="K48">
         <v>4</v>
       </c>
       <c r="L48">
-        <v>2023.7</v>
+        <v>229.5</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N48">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="O48">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -4303,79 +6043,118 @@
         <v>0</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="W48">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="X48">
         <v>4</v>
       </c>
+      <c r="Y48">
+        <v>7.5</v>
+      </c>
       <c r="Z48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA48">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>4</v>
+      </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:41">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C49">
-        <v>12522</v>
+        <v>4792</v>
       </c>
       <c r="D49">
-        <v>2504.4</v>
+        <v>958.4</v>
       </c>
       <c r="E49">
-        <v>2754.5</v>
+        <v>1362.2</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>1594</v>
+        <v>218</v>
       </c>
       <c r="I49">
-        <v>4389</v>
+        <v>1419</v>
       </c>
       <c r="J49">
-        <v>6313</v>
+        <v>3155</v>
       </c>
       <c r="K49">
         <v>5</v>
       </c>
       <c r="L49">
-        <v>3130.5</v>
+        <v>1597.3</v>
       </c>
       <c r="M49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N49">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="O49">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="P49">
-        <v>3056</v>
+        <v>1418</v>
       </c>
       <c r="Q49">
-        <v>611.2</v>
+        <v>283.6</v>
       </c>
       <c r="R49">
-        <v>621.9</v>
+        <v>537.6</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -4384,19 +6163,19 @@
         <v>0</v>
       </c>
       <c r="U49">
-        <v>669</v>
+        <v>7</v>
       </c>
       <c r="V49">
-        <v>950</v>
+        <v>175</v>
       </c>
       <c r="W49">
-        <v>1437</v>
+        <v>1236</v>
       </c>
       <c r="X49">
         <v>5</v>
       </c>
       <c r="Y49">
-        <v>1018.7</v>
+        <v>472.7</v>
       </c>
       <c r="Z49">
         <v>3</v>
@@ -4405,22 +6184,61 @@
         <v>60</v>
       </c>
       <c r="AB49">
+        <v>0.4</v>
+      </c>
+      <c r="AC49">
+        <v>3056</v>
+      </c>
+      <c r="AD49">
+        <v>611.2</v>
+      </c>
+      <c r="AE49">
+        <v>621.9</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>669</v>
+      </c>
+      <c r="AI49">
+        <v>950</v>
+      </c>
+      <c r="AJ49">
+        <v>1437</v>
+      </c>
+      <c r="AK49">
+        <v>5</v>
+      </c>
+      <c r="AL49">
+        <v>1018.7</v>
+      </c>
+      <c r="AM49">
+        <v>3</v>
+      </c>
+      <c r="AN49">
+        <v>60</v>
+      </c>
+      <c r="AO49">
         <v>0.9</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:41">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50">
-        <v>1436</v>
+        <v>1047</v>
       </c>
       <c r="D50">
-        <v>159.6</v>
+        <v>116.3</v>
       </c>
       <c r="E50">
-        <v>325</v>
+        <v>228.5</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -4432,16 +6250,16 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="J50">
-        <v>961</v>
+        <v>670</v>
       </c>
       <c r="K50">
         <v>9</v>
       </c>
       <c r="L50">
-        <v>359</v>
+        <v>261.8</v>
       </c>
       <c r="M50">
         <v>4</v>
@@ -4450,16 +6268,16 @@
         <v>44.4</v>
       </c>
       <c r="O50">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="P50">
-        <v>2286</v>
+        <v>382</v>
       </c>
       <c r="Q50">
-        <v>254</v>
+        <v>42.4</v>
       </c>
       <c r="R50">
-        <v>333.6</v>
+        <v>94.8</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -4468,34 +6286,74 @@
         <v>0</v>
       </c>
       <c r="U50">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="V50">
-        <v>318</v>
+        <v>10</v>
       </c>
       <c r="W50">
-        <v>965</v>
+        <v>283</v>
       </c>
       <c r="X50">
         <v>9</v>
       </c>
       <c r="Y50">
+        <v>127.3</v>
+      </c>
+      <c r="Z50">
+        <v>3</v>
+      </c>
+      <c r="AA50">
+        <v>33.3</v>
+      </c>
+      <c r="AB50">
+        <v>-0.5</v>
+      </c>
+      <c r="AC50">
+        <v>2286</v>
+      </c>
+      <c r="AD50">
+        <v>254</v>
+      </c>
+      <c r="AE50">
+        <v>333.6</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>155</v>
+      </c>
+      <c r="AI50">
+        <v>318</v>
+      </c>
+      <c r="AJ50">
+        <v>965</v>
+      </c>
+      <c r="AK50">
+        <v>9</v>
+      </c>
+      <c r="AL50">
         <v>457.2</v>
       </c>
-      <c r="Z50">
+      <c r="AM50">
         <v>5</v>
       </c>
-      <c r="AA50">
+      <c r="AN50">
         <v>55.6</v>
       </c>
-      <c r="AB50">
+      <c r="AO50">
         <v>0.7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="P1:AB1"/>
+    <mergeCell ref="AC1:AO1"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A18"/>
     <mergeCell ref="A19:A23"/>

--- a/data/analysis/social_media_analytics/pivot_tables/country-governance/museum_activity_groups__var2-country-governance.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/country-governance/museum_activity_groups__var2-country-governance.xlsx
@@ -672,13 +672,13 @@
         <v>24</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="E4">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -693,13 +693,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K4">
         <v>7</v>
       </c>
       <c r="L4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -711,13 +711,13 @@
         <v>-1.2</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q4">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="R4">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -732,13 +732,13 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X4">
         <v>7</v>
       </c>
       <c r="Y4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>-1.2</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -792,13 +792,13 @@
         <v>25</v>
       </c>
       <c r="C5">
-        <v>1200</v>
+        <v>1648</v>
       </c>
       <c r="D5">
-        <v>109.1</v>
+        <v>149.8</v>
       </c>
       <c r="E5">
-        <v>361.8</v>
+        <v>496.9</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1200</v>
+        <v>1648</v>
       </c>
       <c r="K5">
         <v>11</v>
       </c>
       <c r="L5">
-        <v>1200</v>
+        <v>1648</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -831,13 +831,13 @@
         <v>-1.4</v>
       </c>
       <c r="P5">
-        <v>447</v>
+        <v>643</v>
       </c>
       <c r="Q5">
-        <v>40.6</v>
+        <v>58.5</v>
       </c>
       <c r="R5">
-        <v>134.8</v>
+        <v>193.9</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -852,13 +852,13 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>447</v>
+        <v>643</v>
       </c>
       <c r="X5">
         <v>11</v>
       </c>
       <c r="Y5">
-        <v>447</v>
+        <v>643</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -870,13 +870,13 @@
         <v>-1.4</v>
       </c>
       <c r="AC5">
-        <v>619</v>
+        <v>822</v>
       </c>
       <c r="AD5">
-        <v>56.3</v>
+        <v>74.7</v>
       </c>
       <c r="AE5">
-        <v>186.6</v>
+        <v>230.2</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>619</v>
+        <v>767</v>
       </c>
       <c r="AK5">
         <v>11</v>
       </c>
       <c r="AL5">
-        <v>619</v>
+        <v>411</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN5">
-        <v>9.1</v>
+        <v>18.2</v>
       </c>
       <c r="AO5">
-        <v>-0.9</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -993,43 +993,43 @@
         <v>-0.8</v>
       </c>
       <c r="AC6">
-        <v>223</v>
+        <v>1292</v>
       </c>
       <c r="AD6">
-        <v>55.8</v>
+        <v>323</v>
       </c>
       <c r="AE6">
-        <v>111.5</v>
+        <v>456.6</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>21.8</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>155.5</v>
       </c>
       <c r="AI6">
-        <v>55.8</v>
+        <v>456.8</v>
       </c>
       <c r="AJ6">
-        <v>223</v>
+        <v>981</v>
       </c>
       <c r="AK6">
         <v>4</v>
       </c>
       <c r="AL6">
-        <v>223</v>
+        <v>430.7</v>
       </c>
       <c r="AM6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN6">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="AO6">
-        <v>-0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>-1.7</v>
+        <v>-1.8</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AO7">
-        <v>-1.2</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1176,34 +1176,34 @@
         <v>100</v>
       </c>
       <c r="O8">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="P8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X8">
         <v>1</v>
       </c>
       <c r="Y8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Z8">
         <v>1</v>
@@ -1212,40 +1212,43 @@
         <v>100</v>
       </c>
       <c r="AB8">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AK8">
         <v>1</v>
       </c>
+      <c r="AL8">
+        <v>171</v>
+      </c>
       <c r="AM8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO8">
-        <v>-1.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1256,13 +1259,13 @@
         <v>24</v>
       </c>
       <c r="C9">
-        <v>526789</v>
+        <v>614170</v>
       </c>
       <c r="D9">
-        <v>1049.4</v>
+        <v>1223.4</v>
       </c>
       <c r="E9">
-        <v>1800.1</v>
+        <v>2123.8</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1271,37 +1274,37 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>479</v>
+        <v>574</v>
       </c>
       <c r="I9">
-        <v>1450</v>
+        <v>1712.8</v>
       </c>
       <c r="J9">
-        <v>19900</v>
+        <v>24791</v>
       </c>
       <c r="K9">
         <v>502</v>
       </c>
       <c r="L9">
-        <v>1479.7</v>
+        <v>1739.9</v>
       </c>
       <c r="M9">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="N9">
-        <v>70.90000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="O9">
         <v>0.8</v>
       </c>
       <c r="P9">
-        <v>154246</v>
+        <v>173187</v>
       </c>
       <c r="Q9">
-        <v>307.3</v>
+        <v>345</v>
       </c>
       <c r="R9">
-        <v>862.9</v>
+        <v>947.4</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1310,37 +1313,37 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>57</v>
+        <v>75.5</v>
       </c>
       <c r="V9">
-        <v>279.8</v>
+        <v>315.2</v>
       </c>
       <c r="W9">
-        <v>12827</v>
+        <v>13652</v>
       </c>
       <c r="X9">
         <v>502</v>
       </c>
       <c r="Y9">
-        <v>432.1</v>
+        <v>487.9</v>
       </c>
       <c r="Z9">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AA9">
-        <v>71.09999999999999</v>
+        <v>70.7</v>
       </c>
       <c r="AB9">
         <v>0.8</v>
       </c>
       <c r="AC9">
-        <v>277951</v>
+        <v>319983</v>
       </c>
       <c r="AD9">
-        <v>553.7</v>
+        <v>637.4</v>
       </c>
       <c r="AE9">
-        <v>958.2</v>
+        <v>750.7</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1349,28 +1352,28 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>27.5</v>
+        <v>422</v>
       </c>
       <c r="AI9">
-        <v>784</v>
+        <v>1041.5</v>
       </c>
       <c r="AJ9">
-        <v>7154</v>
+        <v>5487</v>
       </c>
       <c r="AK9">
         <v>502</v>
       </c>
       <c r="AL9">
-        <v>1107.4</v>
+        <v>893.8</v>
       </c>
       <c r="AM9">
-        <v>251</v>
+        <v>358</v>
       </c>
       <c r="AN9">
-        <v>50</v>
+        <v>71.3</v>
       </c>
       <c r="AO9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1379,121 +1382,121 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>132041</v>
+        <v>157408</v>
       </c>
       <c r="D10">
-        <v>2750.9</v>
+        <v>3279.3</v>
       </c>
       <c r="E10">
-        <v>3939.6</v>
+        <v>4887.1</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>275.8</v>
+        <v>3.8</v>
       </c>
       <c r="H10">
-        <v>1651.5</v>
+        <v>2007.5</v>
       </c>
       <c r="I10">
-        <v>3662.2</v>
+        <v>4214.8</v>
       </c>
       <c r="J10">
-        <v>18330</v>
+        <v>23112</v>
       </c>
       <c r="K10">
         <v>48</v>
       </c>
       <c r="L10">
-        <v>3568.7</v>
+        <v>4372.4</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N10">
-        <v>77.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10">
-        <v>105190</v>
+        <v>123558</v>
       </c>
       <c r="Q10">
-        <v>2191.5</v>
+        <v>2574.1</v>
       </c>
       <c r="R10">
-        <v>3643</v>
+        <v>4219.1</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>38</v>
+        <v>36.5</v>
       </c>
       <c r="U10">
-        <v>765.5</v>
+        <v>958.5</v>
       </c>
       <c r="V10">
-        <v>2541</v>
+        <v>3266</v>
       </c>
       <c r="W10">
-        <v>18016</v>
+        <v>20340</v>
       </c>
       <c r="X10">
         <v>48</v>
       </c>
       <c r="Y10">
-        <v>2629.8</v>
+        <v>3168.2</v>
       </c>
       <c r="Z10">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA10">
-        <v>83.3</v>
+        <v>81.2</v>
       </c>
       <c r="AB10">
         <v>1.2</v>
       </c>
       <c r="AC10">
-        <v>34364</v>
+        <v>47864</v>
       </c>
       <c r="AD10">
-        <v>715.9</v>
+        <v>997.2</v>
       </c>
       <c r="AE10">
-        <v>665.2</v>
+        <v>872.8</v>
       </c>
       <c r="AF10">
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>3.8</v>
+        <v>330.5</v>
       </c>
       <c r="AH10">
-        <v>689.5</v>
+        <v>879.5</v>
       </c>
       <c r="AI10">
-        <v>1070.5</v>
+        <v>1559.5</v>
       </c>
       <c r="AJ10">
-        <v>2991</v>
+        <v>3465</v>
       </c>
       <c r="AK10">
         <v>48</v>
       </c>
       <c r="AL10">
-        <v>954.6</v>
+        <v>1227.3</v>
       </c>
       <c r="AM10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AN10">
-        <v>75</v>
+        <v>81.2</v>
       </c>
       <c r="AO10">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1502,34 +1505,34 @@
         <v>30</v>
       </c>
       <c r="C11">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="D11">
-        <v>135.5</v>
+        <v>184</v>
       </c>
       <c r="E11">
-        <v>191.6</v>
+        <v>260.2</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>67.8</v>
+        <v>92</v>
       </c>
       <c r="H11">
-        <v>135.5</v>
+        <v>184</v>
       </c>
       <c r="I11">
-        <v>203.2</v>
+        <v>276</v>
       </c>
       <c r="J11">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -1538,37 +1541,37 @@
         <v>50</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P11">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="Q11">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="R11">
-        <v>66.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>23.5</v>
+        <v>28.5</v>
       </c>
       <c r="U11">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="V11">
-        <v>70.5</v>
+        <v>85.5</v>
       </c>
       <c r="W11">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="X11">
         <v>2</v>
       </c>
       <c r="Y11">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -1577,43 +1580,46 @@
         <v>50</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>174.5</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>246.8</v>
       </c>
       <c r="AF11">
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>87.2</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>174.5</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>261.8</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AK11">
         <v>2</v>
       </c>
+      <c r="AL11">
+        <v>349</v>
+      </c>
       <c r="AM11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO11">
-        <v>-1.2</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -1622,13 +1628,13 @@
         <v>31</v>
       </c>
       <c r="C12">
-        <v>7803</v>
+        <v>8951</v>
       </c>
       <c r="D12">
-        <v>150.1</v>
+        <v>172.1</v>
       </c>
       <c r="E12">
-        <v>330.4</v>
+        <v>370.9</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1640,34 +1646,34 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>203</v>
+        <v>221.2</v>
       </c>
       <c r="J12">
-        <v>2032</v>
+        <v>2157</v>
       </c>
       <c r="K12">
         <v>52</v>
       </c>
       <c r="L12">
-        <v>390.2</v>
+        <v>471.1</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N12">
-        <v>38.5</v>
+        <v>36.5</v>
       </c>
       <c r="O12">
         <v>-0.4</v>
       </c>
       <c r="P12">
-        <v>3414</v>
+        <v>3742</v>
       </c>
       <c r="Q12">
-        <v>65.7</v>
+        <v>72</v>
       </c>
       <c r="R12">
-        <v>137.6</v>
+        <v>151.7</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1679,34 +1685,34 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>63.8</v>
+        <v>78</v>
       </c>
       <c r="W12">
-        <v>730</v>
+        <v>776</v>
       </c>
       <c r="X12">
         <v>52</v>
       </c>
       <c r="Y12">
-        <v>155.2</v>
+        <v>178.2</v>
       </c>
       <c r="Z12">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA12">
-        <v>42.3</v>
+        <v>40.4</v>
       </c>
       <c r="AB12">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="AC12">
-        <v>5233</v>
+        <v>11071</v>
       </c>
       <c r="AD12">
-        <v>100.6</v>
+        <v>212.9</v>
       </c>
       <c r="AE12">
-        <v>178.1</v>
+        <v>342.5</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1715,28 +1721,28 @@
         <v>0</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AI12">
-        <v>108.8</v>
+        <v>297.2</v>
       </c>
       <c r="AJ12">
-        <v>727</v>
+        <v>1623</v>
       </c>
       <c r="AK12">
         <v>52</v>
       </c>
       <c r="AL12">
-        <v>327.1</v>
+        <v>381.8</v>
       </c>
       <c r="AM12">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AN12">
-        <v>30.8</v>
+        <v>55.8</v>
       </c>
       <c r="AO12">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -1745,13 +1751,13 @@
         <v>32</v>
       </c>
       <c r="C13">
-        <v>77708</v>
+        <v>90921</v>
       </c>
       <c r="D13">
-        <v>476.7</v>
+        <v>557.8</v>
       </c>
       <c r="E13">
-        <v>944.2</v>
+        <v>1120.5</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1760,37 +1766,37 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="I13">
-        <v>595.5</v>
+        <v>676.5</v>
       </c>
       <c r="J13">
-        <v>8769</v>
+        <v>10974</v>
       </c>
       <c r="K13">
         <v>163</v>
       </c>
       <c r="L13">
-        <v>675.7</v>
+        <v>797.6</v>
       </c>
       <c r="M13">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N13">
-        <v>70.59999999999999</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="O13">
         <v>0.8</v>
       </c>
       <c r="P13">
-        <v>25531</v>
+        <v>28888</v>
       </c>
       <c r="Q13">
-        <v>156.6</v>
+        <v>177.2</v>
       </c>
       <c r="R13">
-        <v>324.9</v>
+        <v>360.9</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1799,19 +1805,19 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V13">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="W13">
-        <v>2905</v>
+        <v>3145</v>
       </c>
       <c r="X13">
         <v>163</v>
       </c>
       <c r="Y13">
-        <v>216.4</v>
+        <v>244.8</v>
       </c>
       <c r="Z13">
         <v>118</v>
@@ -1820,46 +1826,46 @@
         <v>72.40000000000001</v>
       </c>
       <c r="AB13">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AC13">
-        <v>35370</v>
+        <v>64411</v>
       </c>
       <c r="AD13">
-        <v>217</v>
+        <v>395.2</v>
       </c>
       <c r="AE13">
-        <v>299.2</v>
+        <v>373.4</v>
       </c>
       <c r="AF13">
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>72.5</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="AI13">
-        <v>380</v>
+        <v>619</v>
       </c>
       <c r="AJ13">
-        <v>1253</v>
+        <v>1703</v>
       </c>
       <c r="AK13">
         <v>163</v>
       </c>
       <c r="AL13">
-        <v>484.5</v>
+        <v>507.2</v>
       </c>
       <c r="AM13">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="AN13">
-        <v>44.8</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="AO13">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -1868,13 +1874,13 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>851380</v>
+        <v>1000987</v>
       </c>
       <c r="D14">
-        <v>717.3</v>
+        <v>843.3</v>
       </c>
       <c r="E14">
-        <v>1857.3</v>
+        <v>2280.3</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1883,37 +1889,37 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I14">
-        <v>852</v>
+        <v>1011</v>
       </c>
       <c r="J14">
-        <v>43003</v>
+        <v>55081</v>
       </c>
       <c r="K14">
         <v>1187</v>
       </c>
       <c r="L14">
-        <v>1100</v>
+        <v>1310.2</v>
       </c>
       <c r="M14">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="N14">
-        <v>65.2</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="O14">
         <v>0.6</v>
       </c>
       <c r="P14">
-        <v>318312</v>
+        <v>369914</v>
       </c>
       <c r="Q14">
-        <v>268.2</v>
+        <v>311.6</v>
       </c>
       <c r="R14">
-        <v>1001.1</v>
+        <v>1181.3</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1922,37 +1928,37 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V14">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="W14">
-        <v>20111</v>
+        <v>22462</v>
       </c>
       <c r="X14">
         <v>1187</v>
       </c>
       <c r="Y14">
-        <v>408.6</v>
+        <v>479.2</v>
       </c>
       <c r="Z14">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="AA14">
-        <v>65.59999999999999</v>
+        <v>65</v>
       </c>
       <c r="AB14">
         <v>0.6</v>
       </c>
       <c r="AC14">
-        <v>317870</v>
+        <v>492412</v>
       </c>
       <c r="AD14">
-        <v>267.8</v>
+        <v>414.8</v>
       </c>
       <c r="AE14">
-        <v>779.4</v>
+        <v>613.5</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1961,28 +1967,28 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="AI14">
-        <v>317</v>
+        <v>618.5</v>
       </c>
       <c r="AJ14">
-        <v>20246</v>
+        <v>5325</v>
       </c>
       <c r="AK14">
         <v>1187</v>
       </c>
       <c r="AL14">
-        <v>804.7</v>
+        <v>628.9</v>
       </c>
       <c r="AM14">
-        <v>395</v>
+        <v>783</v>
       </c>
       <c r="AN14">
-        <v>33.3</v>
+        <v>66</v>
       </c>
       <c r="AO14">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -1991,13 +1997,13 @@
         <v>26</v>
       </c>
       <c r="C15">
-        <v>122811</v>
+        <v>145305</v>
       </c>
       <c r="D15">
-        <v>335.5</v>
+        <v>397</v>
       </c>
       <c r="E15">
-        <v>1071.4</v>
+        <v>1342.8</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2009,34 +2015,34 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>256.8</v>
+        <v>300.2</v>
       </c>
       <c r="J15">
-        <v>14101</v>
+        <v>17617</v>
       </c>
       <c r="K15">
         <v>366</v>
       </c>
       <c r="L15">
-        <v>682.3</v>
+        <v>798.4</v>
       </c>
       <c r="M15">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N15">
-        <v>49.2</v>
+        <v>49.7</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P15">
-        <v>56389</v>
+        <v>67588</v>
       </c>
       <c r="Q15">
-        <v>154.1</v>
+        <v>184.7</v>
       </c>
       <c r="R15">
-        <v>1067.1</v>
+        <v>1338.7</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2048,34 +2054,34 @@
         <v>2</v>
       </c>
       <c r="V15">
-        <v>55</v>
+        <v>62.8</v>
       </c>
       <c r="W15">
-        <v>19557</v>
+        <v>24554</v>
       </c>
       <c r="X15">
         <v>366</v>
       </c>
       <c r="Y15">
-        <v>293.7</v>
+        <v>346.6</v>
       </c>
       <c r="Z15">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AA15">
-        <v>52.5</v>
+        <v>53.3</v>
       </c>
       <c r="AB15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC15">
-        <v>129561</v>
+        <v>118101</v>
       </c>
       <c r="AD15">
-        <v>354</v>
+        <v>322.7</v>
       </c>
       <c r="AE15">
-        <v>2074.7</v>
+        <v>559.3</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2084,28 +2090,28 @@
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>56.5</v>
       </c>
       <c r="AI15">
-        <v>192.5</v>
+        <v>452.8</v>
       </c>
       <c r="AJ15">
-        <v>36948</v>
+        <v>5226</v>
       </c>
       <c r="AK15">
         <v>366</v>
       </c>
       <c r="AL15">
-        <v>1167.2</v>
+        <v>559.7</v>
       </c>
       <c r="AM15">
-        <v>111</v>
+        <v>211</v>
       </c>
       <c r="AN15">
-        <v>30.3</v>
+        <v>57.7</v>
       </c>
       <c r="AO15">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -2114,13 +2120,13 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>40649</v>
+        <v>48718</v>
       </c>
       <c r="D16">
-        <v>467.2</v>
+        <v>560</v>
       </c>
       <c r="E16">
-        <v>1069.2</v>
+        <v>1298.7</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2132,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>353</v>
+        <v>399.5</v>
       </c>
       <c r="J16">
-        <v>6108</v>
+        <v>7355</v>
       </c>
       <c r="K16">
         <v>87</v>
       </c>
       <c r="L16">
-        <v>1195.6</v>
+        <v>1432.9</v>
       </c>
       <c r="M16">
         <v>34</v>
@@ -2153,13 +2159,13 @@
         <v>-0.3</v>
       </c>
       <c r="P16">
-        <v>12813</v>
+        <v>15047</v>
       </c>
       <c r="Q16">
-        <v>147.3</v>
+        <v>173</v>
       </c>
       <c r="R16">
-        <v>389.5</v>
+        <v>468.3</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2171,34 +2177,34 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>60</v>
+        <v>63.5</v>
       </c>
       <c r="W16">
-        <v>2128</v>
+        <v>2724</v>
       </c>
       <c r="X16">
         <v>87</v>
       </c>
       <c r="Y16">
-        <v>366.1</v>
+        <v>418</v>
       </c>
       <c r="Z16">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA16">
-        <v>40.2</v>
+        <v>41.4</v>
       </c>
       <c r="AB16">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="AC16">
-        <v>36275</v>
+        <v>32059</v>
       </c>
       <c r="AD16">
-        <v>417</v>
+        <v>368.5</v>
       </c>
       <c r="AE16">
-        <v>2363.7</v>
+        <v>743.6</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2207,28 +2213,28 @@
         <v>0</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI16">
-        <v>1.5</v>
+        <v>307.5</v>
       </c>
       <c r="AJ16">
-        <v>21892</v>
+        <v>4927</v>
       </c>
       <c r="AK16">
         <v>87</v>
       </c>
       <c r="AL16">
-        <v>1648.9</v>
+        <v>667.9</v>
       </c>
       <c r="AM16">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="AN16">
-        <v>25.3</v>
+        <v>55.2</v>
       </c>
       <c r="AO16">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -2237,91 +2243,91 @@
         <v>33</v>
       </c>
       <c r="C17">
-        <v>113726</v>
+        <v>133705</v>
       </c>
       <c r="D17">
-        <v>1777</v>
+        <v>2089.1</v>
       </c>
       <c r="E17">
-        <v>2211.5</v>
+        <v>2543.2</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>177</v>
+        <v>203.2</v>
       </c>
       <c r="H17">
-        <v>1156</v>
+        <v>1350.5</v>
       </c>
       <c r="I17">
-        <v>2670.8</v>
+        <v>3082.2</v>
       </c>
       <c r="J17">
-        <v>13060</v>
+        <v>14651</v>
       </c>
       <c r="K17">
         <v>64</v>
       </c>
       <c r="L17">
-        <v>2145.8</v>
+        <v>2571.2</v>
       </c>
       <c r="M17">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N17">
-        <v>82.8</v>
+        <v>81.2</v>
       </c>
       <c r="O17">
         <v>1.2</v>
       </c>
       <c r="P17">
-        <v>70087</v>
+        <v>75564</v>
       </c>
       <c r="Q17">
-        <v>1095.1</v>
+        <v>1180.7</v>
       </c>
       <c r="R17">
-        <v>5845.9</v>
+        <v>6059.6</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>28.5</v>
+        <v>29.8</v>
       </c>
       <c r="U17">
-        <v>222</v>
+        <v>241.5</v>
       </c>
       <c r="V17">
-        <v>483.5</v>
+        <v>580.8</v>
       </c>
       <c r="W17">
-        <v>46992</v>
+        <v>48717</v>
       </c>
       <c r="X17">
         <v>64</v>
       </c>
       <c r="Y17">
-        <v>1322.4</v>
+        <v>1453.2</v>
       </c>
       <c r="Z17">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA17">
-        <v>82.8</v>
+        <v>81.2</v>
       </c>
       <c r="AB17">
         <v>1.2</v>
       </c>
       <c r="AC17">
-        <v>31219</v>
+        <v>40301</v>
       </c>
       <c r="AD17">
-        <v>487.8</v>
+        <v>629.7</v>
       </c>
       <c r="AE17">
-        <v>532.2</v>
+        <v>652.9</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2330,28 +2336,28 @@
         <v>0</v>
       </c>
       <c r="AH17">
-        <v>361</v>
+        <v>436</v>
       </c>
       <c r="AI17">
-        <v>868.8</v>
+        <v>1140.5</v>
       </c>
       <c r="AJ17">
-        <v>1748</v>
+        <v>2204</v>
       </c>
       <c r="AK17">
         <v>64</v>
       </c>
       <c r="AL17">
-        <v>843.8</v>
+        <v>895.6</v>
       </c>
       <c r="AM17">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AN17">
-        <v>57.8</v>
+        <v>70.3</v>
       </c>
       <c r="AO17">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -2360,13 +2366,13 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>13622</v>
+        <v>17435</v>
       </c>
       <c r="D18">
-        <v>400.6</v>
+        <v>512.8</v>
       </c>
       <c r="E18">
-        <v>976.8</v>
+        <v>1310.8</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2378,16 +2384,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>114.8</v>
+        <v>144.2</v>
       </c>
       <c r="J18">
-        <v>4250</v>
+        <v>6144</v>
       </c>
       <c r="K18">
         <v>34</v>
       </c>
       <c r="L18">
-        <v>973</v>
+        <v>1245.4</v>
       </c>
       <c r="M18">
         <v>14</v>
@@ -2396,16 +2402,16 @@
         <v>41.2</v>
       </c>
       <c r="O18">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="P18">
-        <v>2252</v>
+        <v>3239</v>
       </c>
       <c r="Q18">
-        <v>66.2</v>
+        <v>95.3</v>
       </c>
       <c r="R18">
-        <v>158.7</v>
+        <v>243.4</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2420,31 +2426,31 @@
         <v>9.199999999999999</v>
       </c>
       <c r="W18">
-        <v>648</v>
+        <v>1010</v>
       </c>
       <c r="X18">
         <v>34</v>
       </c>
       <c r="Y18">
-        <v>173.2</v>
+        <v>231.4</v>
       </c>
       <c r="Z18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA18">
-        <v>38.2</v>
+        <v>41.2</v>
       </c>
       <c r="AB18">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="AC18">
-        <v>4789</v>
+        <v>10338</v>
       </c>
       <c r="AD18">
-        <v>140.9</v>
+        <v>304.1</v>
       </c>
       <c r="AE18">
-        <v>395.3</v>
+        <v>679.3</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2453,28 +2459,28 @@
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="AJ18">
-        <v>1735</v>
+        <v>2668</v>
       </c>
       <c r="AK18">
         <v>34</v>
       </c>
       <c r="AL18">
-        <v>684.1</v>
+        <v>608.1</v>
       </c>
       <c r="AM18">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AN18">
-        <v>20.6</v>
+        <v>50</v>
       </c>
       <c r="AO18">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -2515,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>-1.7</v>
+        <v>-1.8</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -2581,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="AO19">
-        <v>-1.2</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -2590,34 +2596,34 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="D20">
-        <v>816.5</v>
+        <v>870.5</v>
       </c>
       <c r="E20">
-        <v>1154.7</v>
+        <v>1231.1</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>408.2</v>
+        <v>435.2</v>
       </c>
       <c r="H20">
-        <v>816.5</v>
+        <v>870.5</v>
       </c>
       <c r="I20">
-        <v>1224.8</v>
+        <v>1305.8</v>
       </c>
       <c r="J20">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -2626,37 +2632,37 @@
         <v>50</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P20">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="Q20">
-        <v>205.5</v>
+        <v>222</v>
       </c>
       <c r="R20">
-        <v>290.6</v>
+        <v>314</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>102.8</v>
+        <v>111</v>
       </c>
       <c r="U20">
-        <v>205.5</v>
+        <v>222</v>
       </c>
       <c r="V20">
-        <v>308.2</v>
+        <v>333</v>
       </c>
       <c r="W20">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="X20">
         <v>2</v>
       </c>
       <c r="Y20">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="Z20">
         <v>1</v>
@@ -2665,37 +2671,37 @@
         <v>50</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC20">
-        <v>675</v>
+        <v>824</v>
       </c>
       <c r="AD20">
-        <v>337.5</v>
+        <v>412</v>
       </c>
       <c r="AE20">
-        <v>477.3</v>
+        <v>582.7</v>
       </c>
       <c r="AF20">
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>168.8</v>
+        <v>206</v>
       </c>
       <c r="AH20">
-        <v>337.5</v>
+        <v>412</v>
       </c>
       <c r="AI20">
-        <v>506.2</v>
+        <v>618</v>
       </c>
       <c r="AJ20">
-        <v>675</v>
+        <v>824</v>
       </c>
       <c r="AK20">
         <v>2</v>
       </c>
       <c r="AL20">
-        <v>675</v>
+        <v>824</v>
       </c>
       <c r="AM20">
         <v>1</v>
@@ -2704,7 +2710,7 @@
         <v>50</v>
       </c>
       <c r="AO20">
-        <v>0.5</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="21" spans="1:41">
@@ -2713,13 +2719,13 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>1731</v>
+        <v>1839</v>
       </c>
       <c r="D21">
-        <v>192.3</v>
+        <v>204.3</v>
       </c>
       <c r="E21">
-        <v>541.2</v>
+        <v>577.2</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2734,13 +2740,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="K21">
         <v>9</v>
       </c>
       <c r="L21">
-        <v>865.5</v>
+        <v>919.5</v>
       </c>
       <c r="M21">
         <v>2</v>
@@ -2752,13 +2758,13 @@
         <v>-0.9</v>
       </c>
       <c r="P21">
-        <v>427</v>
+        <v>464</v>
       </c>
       <c r="Q21">
-        <v>47.4</v>
+        <v>51.6</v>
       </c>
       <c r="R21">
-        <v>136.4</v>
+        <v>147.3</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2773,13 +2779,13 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="X21">
         <v>9</v>
       </c>
       <c r="Y21">
-        <v>213.5</v>
+        <v>232</v>
       </c>
       <c r="Z21">
         <v>2</v>
@@ -2791,13 +2797,13 @@
         <v>-0.9</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>24.8</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2812,16 +2818,19 @@
         <v>0</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="AK21">
         <v>9</v>
       </c>
+      <c r="AL21">
+        <v>56</v>
+      </c>
       <c r="AM21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="AO21">
         <v>-1.2</v>
@@ -2833,34 +2842,34 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>47576</v>
+        <v>52268</v>
       </c>
       <c r="D22">
-        <v>23788</v>
+        <v>26134</v>
       </c>
       <c r="E22">
-        <v>33634.2</v>
+        <v>36952</v>
       </c>
       <c r="F22">
         <v>5</v>
       </c>
       <c r="G22">
-        <v>11896.5</v>
+        <v>13069.5</v>
       </c>
       <c r="H22">
-        <v>23788</v>
+        <v>26134</v>
       </c>
       <c r="I22">
-        <v>35679.5</v>
+        <v>39198.5</v>
       </c>
       <c r="J22">
-        <v>47571</v>
+        <v>52263</v>
       </c>
       <c r="K22">
         <v>2</v>
       </c>
       <c r="L22">
-        <v>23788</v>
+        <v>26134</v>
       </c>
       <c r="M22">
         <v>2</v>
@@ -2869,37 +2878,37 @@
         <v>100</v>
       </c>
       <c r="O22">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="P22">
-        <v>20886</v>
+        <v>24619</v>
       </c>
       <c r="Q22">
-        <v>10443</v>
+        <v>12309.5</v>
       </c>
       <c r="R22">
-        <v>14765.8</v>
+        <v>17406.8</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>5222.5</v>
+        <v>6155.2</v>
       </c>
       <c r="U22">
-        <v>10443</v>
+        <v>12309.5</v>
       </c>
       <c r="V22">
-        <v>15663.5</v>
+        <v>18463.8</v>
       </c>
       <c r="W22">
-        <v>20884</v>
+        <v>24618</v>
       </c>
       <c r="X22">
         <v>2</v>
       </c>
       <c r="Y22">
-        <v>10443</v>
+        <v>12309.5</v>
       </c>
       <c r="Z22">
         <v>2</v>
@@ -2908,43 +2917,46 @@
         <v>100</v>
       </c>
       <c r="AB22">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>1057</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>528.5</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>570.6</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>326.8</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>528.5</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>730.2</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>932</v>
       </c>
       <c r="AK22">
         <v>2</v>
       </c>
+      <c r="AL22">
+        <v>528.5</v>
+      </c>
       <c r="AM22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO22">
-        <v>-1.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="23" spans="1:41">
@@ -2983,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>-1.7</v>
+        <v>-1.8</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -3049,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="AO23">
-        <v>-1.2</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -3060,13 +3072,13 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>18475</v>
+        <v>27166</v>
       </c>
       <c r="D24">
-        <v>615.8</v>
+        <v>905.5</v>
       </c>
       <c r="E24">
-        <v>2713.2</v>
+        <v>4182.8</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3078,16 +3090,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="J24">
-        <v>14888</v>
+        <v>22972</v>
       </c>
       <c r="K24">
         <v>30</v>
       </c>
       <c r="L24">
-        <v>2309.4</v>
+        <v>3395.8</v>
       </c>
       <c r="M24">
         <v>8</v>
@@ -3099,13 +3111,13 @@
         <v>-0.8</v>
       </c>
       <c r="P24">
-        <v>11090</v>
+        <v>18443</v>
       </c>
       <c r="Q24">
-        <v>369.7</v>
+        <v>614.8</v>
       </c>
       <c r="R24">
-        <v>1899.8</v>
+        <v>3227.9</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -3117,16 +3129,16 @@
         <v>0</v>
       </c>
       <c r="V24">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="W24">
-        <v>10421</v>
+        <v>17700</v>
       </c>
       <c r="X24">
         <v>30</v>
       </c>
       <c r="Y24">
-        <v>1386.2</v>
+        <v>2305.4</v>
       </c>
       <c r="Z24">
         <v>8</v>
@@ -3138,13 +3150,13 @@
         <v>-0.8</v>
       </c>
       <c r="AC24">
-        <v>19617</v>
+        <v>6382</v>
       </c>
       <c r="AD24">
-        <v>653.9</v>
+        <v>212.7</v>
       </c>
       <c r="AE24">
-        <v>1948.9</v>
+        <v>313.5</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -3156,25 +3168,25 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>376.8</v>
       </c>
       <c r="AJ24">
-        <v>6887</v>
+        <v>1112</v>
       </c>
       <c r="AK24">
         <v>30</v>
       </c>
       <c r="AL24">
-        <v>4904.2</v>
+        <v>490.9</v>
       </c>
       <c r="AM24">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AN24">
-        <v>13.3</v>
+        <v>43.3</v>
       </c>
       <c r="AO24">
-        <v>-0.7</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="25" spans="1:41">
@@ -3183,121 +3195,121 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>3685</v>
+        <v>3141</v>
       </c>
       <c r="D25">
-        <v>921.2</v>
+        <v>785.2</v>
       </c>
       <c r="E25">
-        <v>601</v>
+        <v>872.6</v>
       </c>
       <c r="F25">
-        <v>435</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>531</v>
+        <v>330.8</v>
       </c>
       <c r="H25">
-        <v>740.5</v>
+        <v>558</v>
       </c>
       <c r="I25">
-        <v>1130.8</v>
+        <v>1012.5</v>
       </c>
       <c r="J25">
-        <v>1769</v>
+        <v>2025</v>
       </c>
       <c r="K25">
         <v>4</v>
       </c>
       <c r="L25">
-        <v>921.2</v>
+        <v>1047</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N25">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O25">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="P25">
-        <v>1229</v>
+        <v>1031</v>
       </c>
       <c r="Q25">
-        <v>307.2</v>
+        <v>257.8</v>
       </c>
       <c r="R25">
-        <v>329.4</v>
+        <v>377.7</v>
       </c>
       <c r="S25">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>103.2</v>
+        <v>56.2</v>
       </c>
       <c r="U25">
-        <v>189.5</v>
+        <v>106.5</v>
       </c>
       <c r="V25">
-        <v>393.5</v>
+        <v>308</v>
       </c>
       <c r="W25">
-        <v>785</v>
+        <v>818</v>
       </c>
       <c r="X25">
         <v>4</v>
       </c>
       <c r="Y25">
-        <v>307.2</v>
+        <v>343.7</v>
       </c>
       <c r="Z25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA25">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AB25">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AC25">
-        <v>3189</v>
+        <v>2125</v>
       </c>
       <c r="AD25">
-        <v>797.2</v>
+        <v>531.2</v>
       </c>
       <c r="AE25">
-        <v>344.2</v>
+        <v>382.8</v>
       </c>
       <c r="AF25">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="AG25">
-        <v>578.2</v>
+        <v>404.2</v>
       </c>
       <c r="AH25">
-        <v>680</v>
+        <v>615.5</v>
       </c>
       <c r="AI25">
-        <v>899</v>
+        <v>742.5</v>
       </c>
       <c r="AJ25">
-        <v>1292</v>
+        <v>894</v>
       </c>
       <c r="AK25">
         <v>4</v>
       </c>
       <c r="AL25">
-        <v>797.2</v>
+        <v>708.3</v>
       </c>
       <c r="AM25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN25">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AO25">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="26" spans="1:41">
@@ -3306,13 +3318,13 @@
         <v>32</v>
       </c>
       <c r="C26">
-        <v>1444</v>
+        <v>1692</v>
       </c>
       <c r="D26">
-        <v>206.3</v>
+        <v>241.7</v>
       </c>
       <c r="E26">
-        <v>363.1</v>
+        <v>437.3</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3324,16 +3336,16 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="J26">
-        <v>874</v>
+        <v>1096</v>
       </c>
       <c r="K26">
         <v>7</v>
       </c>
       <c r="L26">
-        <v>722</v>
+        <v>846</v>
       </c>
       <c r="M26">
         <v>2</v>
@@ -3345,13 +3357,13 @@
         <v>-0.7</v>
       </c>
       <c r="P26">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="Q26">
-        <v>46.6</v>
+        <v>49.9</v>
       </c>
       <c r="R26">
-        <v>82.2</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3363,16 +3375,16 @@
         <v>0</v>
       </c>
       <c r="V26">
-        <v>63.5</v>
+        <v>67.5</v>
       </c>
       <c r="W26">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="X26">
         <v>7</v>
       </c>
       <c r="Y26">
-        <v>163</v>
+        <v>174.5</v>
       </c>
       <c r="Z26">
         <v>2</v>
@@ -3384,34 +3396,34 @@
         <v>-0.7</v>
       </c>
       <c r="AC26">
-        <v>3602</v>
+        <v>4598</v>
       </c>
       <c r="AD26">
-        <v>514.6</v>
+        <v>656.9</v>
       </c>
       <c r="AE26">
-        <v>263</v>
+        <v>323.8</v>
       </c>
       <c r="AF26">
         <v>0</v>
       </c>
       <c r="AG26">
-        <v>469</v>
+        <v>649</v>
       </c>
       <c r="AH26">
-        <v>576</v>
+        <v>717</v>
       </c>
       <c r="AI26">
-        <v>615</v>
+        <v>765</v>
       </c>
       <c r="AJ26">
-        <v>858</v>
+        <v>1053</v>
       </c>
       <c r="AK26">
         <v>7</v>
       </c>
       <c r="AL26">
-        <v>600.3</v>
+        <v>766.3</v>
       </c>
       <c r="AM26">
         <v>6</v>
@@ -3420,7 +3432,7 @@
         <v>85.7</v>
       </c>
       <c r="AO26">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="27" spans="1:41">
@@ -3429,13 +3441,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>16398</v>
+        <v>20020</v>
       </c>
       <c r="D27">
-        <v>565.4</v>
+        <v>690.3</v>
       </c>
       <c r="E27">
-        <v>1113.2</v>
+        <v>1323.3</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3444,19 +3456,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="I27">
-        <v>666</v>
+        <v>767</v>
       </c>
       <c r="J27">
-        <v>5535</v>
+        <v>6402</v>
       </c>
       <c r="K27">
         <v>29</v>
       </c>
       <c r="L27">
-        <v>819.9</v>
+        <v>1001</v>
       </c>
       <c r="M27">
         <v>20</v>
@@ -3465,16 +3477,16 @@
         <v>69</v>
       </c>
       <c r="O27">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="P27">
-        <v>3399</v>
+        <v>4461</v>
       </c>
       <c r="Q27">
-        <v>117.2</v>
+        <v>153.8</v>
       </c>
       <c r="R27">
-        <v>207.5</v>
+        <v>271</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3483,19 +3495,19 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="V27">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="W27">
-        <v>915</v>
+        <v>1182</v>
       </c>
       <c r="X27">
         <v>29</v>
       </c>
       <c r="Y27">
-        <v>178.9</v>
+        <v>234.8</v>
       </c>
       <c r="Z27">
         <v>19</v>
@@ -3507,13 +3519,13 @@
         <v>0.6</v>
       </c>
       <c r="AC27">
-        <v>7966</v>
+        <v>12173</v>
       </c>
       <c r="AD27">
-        <v>274.7</v>
+        <v>419.8</v>
       </c>
       <c r="AE27">
-        <v>540.2</v>
+        <v>509.5</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3522,28 +3534,28 @@
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="AI27">
-        <v>419</v>
+        <v>697</v>
       </c>
       <c r="AJ27">
-        <v>2410</v>
+        <v>1627</v>
       </c>
       <c r="AK27">
         <v>29</v>
       </c>
       <c r="AL27">
-        <v>796.6</v>
+        <v>640.7</v>
       </c>
       <c r="AM27">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AN27">
-        <v>34.5</v>
+        <v>65.5</v>
       </c>
       <c r="AO27">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28" spans="1:41">
@@ -3552,13 +3564,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>3739</v>
+        <v>4476</v>
       </c>
       <c r="D28">
-        <v>267.1</v>
+        <v>319.7</v>
       </c>
       <c r="E28">
-        <v>589.4</v>
+        <v>708.8</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3570,16 +3582,16 @@
         <v>2.5</v>
       </c>
       <c r="I28">
-        <v>40.5</v>
+        <v>41</v>
       </c>
       <c r="J28">
-        <v>2059</v>
+        <v>2477</v>
       </c>
       <c r="K28">
         <v>14</v>
       </c>
       <c r="L28">
-        <v>534.1</v>
+        <v>639.4</v>
       </c>
       <c r="M28">
         <v>7</v>
@@ -3588,16 +3600,16 @@
         <v>50</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P28">
-        <v>1177</v>
+        <v>1447</v>
       </c>
       <c r="Q28">
-        <v>84.09999999999999</v>
+        <v>103.4</v>
       </c>
       <c r="R28">
-        <v>195.6</v>
+        <v>239.8</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -3609,16 +3621,16 @@
         <v>0</v>
       </c>
       <c r="V28">
-        <v>15.8</v>
+        <v>18.8</v>
       </c>
       <c r="W28">
-        <v>637</v>
+        <v>772</v>
       </c>
       <c r="X28">
         <v>14</v>
       </c>
       <c r="Y28">
-        <v>196.2</v>
+        <v>241.2</v>
       </c>
       <c r="Z28">
         <v>6</v>
@@ -3630,13 +3642,13 @@
         <v>-0.2</v>
       </c>
       <c r="AC28">
-        <v>10734</v>
+        <v>5368</v>
       </c>
       <c r="AD28">
-        <v>766.7</v>
+        <v>383.4</v>
       </c>
       <c r="AE28">
-        <v>2026.5</v>
+        <v>523.7</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3645,28 +3657,28 @@
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="AI28">
-        <v>487.5</v>
+        <v>669.8</v>
       </c>
       <c r="AJ28">
-        <v>7664</v>
+        <v>1480</v>
       </c>
       <c r="AK28">
         <v>14</v>
       </c>
       <c r="AL28">
-        <v>2146.8</v>
+        <v>671</v>
       </c>
       <c r="AM28">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AN28">
-        <v>35.7</v>
+        <v>57.1</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="29" spans="1:41">
@@ -3675,13 +3687,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>2475</v>
+        <v>2843</v>
       </c>
       <c r="D29">
-        <v>825</v>
+        <v>947.7</v>
       </c>
       <c r="E29">
-        <v>1428.9</v>
+        <v>1641.4</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3693,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>1237.5</v>
+        <v>1421.5</v>
       </c>
       <c r="J29">
-        <v>2475</v>
+        <v>2843</v>
       </c>
       <c r="K29">
         <v>3</v>
       </c>
       <c r="L29">
-        <v>2475</v>
+        <v>2843</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -3714,13 +3726,13 @@
         <v>-0.5</v>
       </c>
       <c r="P29">
-        <v>692</v>
+        <v>756</v>
       </c>
       <c r="Q29">
-        <v>230.7</v>
+        <v>252</v>
       </c>
       <c r="R29">
-        <v>399.5</v>
+        <v>436.5</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -3732,16 +3744,16 @@
         <v>0</v>
       </c>
       <c r="V29">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="W29">
-        <v>692</v>
+        <v>756</v>
       </c>
       <c r="X29">
         <v>3</v>
       </c>
       <c r="Y29">
-        <v>692</v>
+        <v>756</v>
       </c>
       <c r="Z29">
         <v>1</v>
@@ -3753,13 +3765,13 @@
         <v>-0.5</v>
       </c>
       <c r="AC29">
-        <v>786</v>
+        <v>1277</v>
       </c>
       <c r="AD29">
-        <v>262</v>
+        <v>425.7</v>
       </c>
       <c r="AE29">
-        <v>453.8</v>
+        <v>737.3</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3771,16 +3783,16 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>393</v>
+        <v>638.5</v>
       </c>
       <c r="AJ29">
-        <v>786</v>
+        <v>1277</v>
       </c>
       <c r="AK29">
         <v>3</v>
       </c>
       <c r="AL29">
-        <v>786</v>
+        <v>1277</v>
       </c>
       <c r="AM29">
         <v>1</v>
@@ -3789,7 +3801,7 @@
         <v>33.3</v>
       </c>
       <c r="AO29">
-        <v>-0</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="30" spans="1:41">
@@ -3798,31 +3810,31 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>517</v>
+        <v>662</v>
       </c>
       <c r="D30">
-        <v>517</v>
+        <v>662</v>
       </c>
       <c r="F30">
-        <v>517</v>
+        <v>662</v>
       </c>
       <c r="G30">
-        <v>517</v>
+        <v>662</v>
       </c>
       <c r="H30">
-        <v>517</v>
+        <v>662</v>
       </c>
       <c r="I30">
-        <v>517</v>
+        <v>662</v>
       </c>
       <c r="J30">
-        <v>517</v>
+        <v>662</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30">
-        <v>517</v>
+        <v>662</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -3831,34 +3843,34 @@
         <v>100</v>
       </c>
       <c r="O30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="P30">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="Q30">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="S30">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="T30">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="U30">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="V30">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="W30">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="X30">
         <v>1</v>
       </c>
       <c r="Y30">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="Z30">
         <v>1</v>
@@ -3867,34 +3879,34 @@
         <v>100</v>
       </c>
       <c r="AB30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AC30">
-        <v>794</v>
+        <v>931</v>
       </c>
       <c r="AD30">
-        <v>794</v>
+        <v>931</v>
       </c>
       <c r="AF30">
-        <v>794</v>
+        <v>931</v>
       </c>
       <c r="AG30">
-        <v>794</v>
+        <v>931</v>
       </c>
       <c r="AH30">
-        <v>794</v>
+        <v>931</v>
       </c>
       <c r="AI30">
-        <v>794</v>
+        <v>931</v>
       </c>
       <c r="AJ30">
-        <v>794</v>
+        <v>931</v>
       </c>
       <c r="AK30">
         <v>1</v>
       </c>
       <c r="AL30">
-        <v>794</v>
+        <v>931</v>
       </c>
       <c r="AM30">
         <v>1</v>
@@ -3903,7 +3915,7 @@
         <v>100</v>
       </c>
       <c r="AO30">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="31" spans="1:41">
@@ -3912,13 +3924,13 @@
         <v>28</v>
       </c>
       <c r="C31">
-        <v>5033</v>
+        <v>6181</v>
       </c>
       <c r="D31">
-        <v>838.8</v>
+        <v>1030.2</v>
       </c>
       <c r="E31">
-        <v>2012.4</v>
+        <v>2477.6</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -3930,16 +3942,16 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>65.2</v>
+        <v>70.5</v>
       </c>
       <c r="J31">
-        <v>4946</v>
+        <v>6087</v>
       </c>
       <c r="K31">
         <v>6</v>
       </c>
       <c r="L31">
-        <v>2516.5</v>
+        <v>3090.5</v>
       </c>
       <c r="M31">
         <v>2</v>
@@ -3951,13 +3963,13 @@
         <v>-0.5</v>
       </c>
       <c r="P31">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="Q31">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="R31">
-        <v>65.2</v>
+        <v>87.2</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -3972,13 +3984,13 @@
         <v>5.2</v>
       </c>
       <c r="W31">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="X31">
         <v>6</v>
       </c>
       <c r="Y31">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="Z31">
         <v>2</v>
@@ -3990,13 +4002,13 @@
         <v>-0.5</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>1496</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>249.3</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>483.6</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -4008,22 +4020,25 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="AJ31">
-        <v>0</v>
+        <v>1208</v>
       </c>
       <c r="AK31">
         <v>6</v>
       </c>
+      <c r="AL31">
+        <v>748</v>
+      </c>
       <c r="AM31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN31">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="AO31">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="32" spans="1:41">
@@ -4034,13 +4049,13 @@
         <v>24</v>
       </c>
       <c r="C32">
-        <v>93400</v>
+        <v>107409</v>
       </c>
       <c r="D32">
-        <v>741.3</v>
+        <v>852.5</v>
       </c>
       <c r="E32">
-        <v>1391.3</v>
+        <v>1676.3</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -4052,34 +4067,34 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>869.8</v>
+        <v>919.5</v>
       </c>
       <c r="J32">
-        <v>7295</v>
+        <v>8046</v>
       </c>
       <c r="K32">
         <v>126</v>
       </c>
       <c r="L32">
-        <v>1556.7</v>
+        <v>1918</v>
       </c>
       <c r="M32">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N32">
-        <v>47.6</v>
+        <v>44.4</v>
       </c>
       <c r="O32">
-        <v>-0</v>
+        <v>-0.1</v>
       </c>
       <c r="P32">
-        <v>27306</v>
+        <v>32157</v>
       </c>
       <c r="Q32">
-        <v>216.7</v>
+        <v>255.2</v>
       </c>
       <c r="R32">
-        <v>657.6</v>
+        <v>781.5</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -4091,34 +4106,34 @@
         <v>0</v>
       </c>
       <c r="V32">
-        <v>152.5</v>
+        <v>167.8</v>
       </c>
       <c r="W32">
-        <v>6050</v>
+        <v>6901</v>
       </c>
       <c r="X32">
         <v>126</v>
       </c>
       <c r="Y32">
-        <v>455.1</v>
+        <v>564.2</v>
       </c>
       <c r="Z32">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA32">
-        <v>47.6</v>
+        <v>45.2</v>
       </c>
       <c r="AB32">
-        <v>-0</v>
+        <v>-0.1</v>
       </c>
       <c r="AC32">
-        <v>37734</v>
+        <v>69979</v>
       </c>
       <c r="AD32">
-        <v>299.5</v>
+        <v>555.4</v>
       </c>
       <c r="AE32">
-        <v>788.3</v>
+        <v>1127.6</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -4127,28 +4142,28 @@
         <v>0</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>73.5</v>
       </c>
       <c r="AI32">
-        <v>56.2</v>
+        <v>789.8</v>
       </c>
       <c r="AJ32">
-        <v>6448</v>
+        <v>8295</v>
       </c>
       <c r="AK32">
         <v>126</v>
       </c>
       <c r="AL32">
-        <v>1109.8</v>
+        <v>1014.2</v>
       </c>
       <c r="AM32">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="AN32">
-        <v>27</v>
+        <v>54.8</v>
       </c>
       <c r="AO32">
-        <v>-0.3</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="33" spans="1:41">
@@ -4157,13 +4172,13 @@
         <v>29</v>
       </c>
       <c r="C33">
-        <v>18932</v>
+        <v>22451</v>
       </c>
       <c r="D33">
-        <v>1893.2</v>
+        <v>2245.1</v>
       </c>
       <c r="E33">
-        <v>2959.4</v>
+        <v>3489.6</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -4172,19 +4187,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>405.5</v>
+        <v>484</v>
       </c>
       <c r="I33">
-        <v>3230.5</v>
+        <v>3586.8</v>
       </c>
       <c r="J33">
-        <v>8541</v>
+        <v>9810</v>
       </c>
       <c r="K33">
         <v>10</v>
       </c>
       <c r="L33">
-        <v>3155.3</v>
+        <v>3741.8</v>
       </c>
       <c r="M33">
         <v>6</v>
@@ -4193,16 +4208,16 @@
         <v>60</v>
       </c>
       <c r="O33">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="P33">
-        <v>9929</v>
+        <v>11362</v>
       </c>
       <c r="Q33">
-        <v>992.9</v>
+        <v>1136.2</v>
       </c>
       <c r="R33">
-        <v>1582</v>
+        <v>1815.2</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -4211,19 +4226,19 @@
         <v>0</v>
       </c>
       <c r="U33">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="V33">
-        <v>1834.8</v>
+        <v>1936</v>
       </c>
       <c r="W33">
-        <v>4057</v>
+        <v>4411</v>
       </c>
       <c r="X33">
         <v>10</v>
       </c>
       <c r="Y33">
-        <v>1654.8</v>
+        <v>1893.7</v>
       </c>
       <c r="Z33">
         <v>6</v>
@@ -4235,13 +4250,13 @@
         <v>0.4</v>
       </c>
       <c r="AC33">
-        <v>4134</v>
+        <v>6534</v>
       </c>
       <c r="AD33">
-        <v>413.4</v>
+        <v>653.4</v>
       </c>
       <c r="AE33">
-        <v>683.5</v>
+        <v>847.1</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -4250,25 +4265,25 @@
         <v>0</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AI33">
-        <v>752.2</v>
+        <v>1576.2</v>
       </c>
       <c r="AJ33">
-        <v>1622</v>
+        <v>1869</v>
       </c>
       <c r="AK33">
         <v>10</v>
       </c>
       <c r="AL33">
-        <v>1378</v>
+        <v>1306.8</v>
       </c>
       <c r="AM33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN33">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AO33">
         <v>-0.2</v>
@@ -4280,13 +4295,13 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>650</v>
+        <v>739</v>
       </c>
       <c r="D34">
-        <v>34.2</v>
+        <v>38.9</v>
       </c>
       <c r="E34">
-        <v>149.1</v>
+        <v>169.5</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -4301,13 +4316,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>650</v>
+        <v>739</v>
       </c>
       <c r="K34">
         <v>19</v>
       </c>
       <c r="L34">
-        <v>650</v>
+        <v>739</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -4316,16 +4331,16 @@
         <v>5.3</v>
       </c>
       <c r="O34">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="P34">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Q34">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="R34">
-        <v>19.7</v>
+        <v>20.6</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -4340,13 +4355,13 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="X34">
         <v>19</v>
       </c>
       <c r="Y34">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Z34">
         <v>1</v>
@@ -4355,16 +4370,16 @@
         <v>5.3</v>
       </c>
       <c r="AB34">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="AC34">
-        <v>672</v>
+        <v>3079</v>
       </c>
       <c r="AD34">
-        <v>35.4</v>
+        <v>162.1</v>
       </c>
       <c r="AE34">
-        <v>107.8</v>
+        <v>500.7</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -4379,22 +4394,22 @@
         <v>0</v>
       </c>
       <c r="AJ34">
-        <v>395</v>
+        <v>2152</v>
       </c>
       <c r="AK34">
         <v>19</v>
       </c>
       <c r="AL34">
-        <v>336</v>
+        <v>769.8</v>
       </c>
       <c r="AM34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN34">
-        <v>10.5</v>
+        <v>21.1</v>
       </c>
       <c r="AO34">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="35" spans="1:41">
@@ -4403,13 +4418,13 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>9357</v>
+        <v>10297</v>
       </c>
       <c r="D35">
-        <v>359.9</v>
+        <v>396</v>
       </c>
       <c r="E35">
-        <v>531.5</v>
+        <v>584</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -4418,37 +4433,37 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>21.5</v>
+        <v>26.5</v>
       </c>
       <c r="I35">
-        <v>563</v>
+        <v>644</v>
       </c>
       <c r="J35">
-        <v>1662</v>
+        <v>1856</v>
       </c>
       <c r="K35">
         <v>26</v>
       </c>
       <c r="L35">
-        <v>623.8</v>
+        <v>792.1</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N35">
-        <v>57.7</v>
+        <v>50</v>
       </c>
       <c r="O35">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="P35">
-        <v>3480</v>
+        <v>3630</v>
       </c>
       <c r="Q35">
-        <v>133.8</v>
+        <v>139.6</v>
       </c>
       <c r="R35">
-        <v>257.6</v>
+        <v>265.4</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -4457,67 +4472,67 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="V35">
-        <v>73</v>
+        <v>92.8</v>
       </c>
       <c r="W35">
-        <v>809</v>
+        <v>822</v>
       </c>
       <c r="X35">
         <v>26</v>
       </c>
       <c r="Y35">
-        <v>232</v>
+        <v>279.2</v>
       </c>
       <c r="Z35">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA35">
-        <v>57.7</v>
+        <v>50</v>
       </c>
       <c r="AB35">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AC35">
-        <v>5471</v>
+        <v>14303</v>
       </c>
       <c r="AD35">
-        <v>210.4</v>
+        <v>550.1</v>
       </c>
       <c r="AE35">
-        <v>476.7</v>
+        <v>591.7</v>
       </c>
       <c r="AF35">
         <v>0</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>63.8</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="AI35">
-        <v>129</v>
+        <v>698</v>
       </c>
       <c r="AJ35">
-        <v>1716</v>
+        <v>1988</v>
       </c>
       <c r="AK35">
         <v>26</v>
       </c>
       <c r="AL35">
-        <v>781.6</v>
+        <v>621.9</v>
       </c>
       <c r="AM35">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AN35">
-        <v>26.9</v>
+        <v>88.5</v>
       </c>
       <c r="AO35">
-        <v>-0.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="36" spans="1:41">
@@ -4526,13 +4541,13 @@
         <v>25</v>
       </c>
       <c r="C36">
-        <v>133458</v>
+        <v>153930</v>
       </c>
       <c r="D36">
-        <v>623.6</v>
+        <v>719.3</v>
       </c>
       <c r="E36">
-        <v>3343.3</v>
+        <v>3588.8</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -4541,19 +4556,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>24.5</v>
+        <v>34</v>
       </c>
       <c r="I36">
-        <v>513</v>
+        <v>626</v>
       </c>
       <c r="J36">
-        <v>47580</v>
+        <v>50844</v>
       </c>
       <c r="K36">
         <v>214</v>
       </c>
       <c r="L36">
-        <v>1093.9</v>
+        <v>1261.7</v>
       </c>
       <c r="M36">
         <v>122</v>
@@ -4565,13 +4580,13 @@
         <v>0.3</v>
       </c>
       <c r="P36">
-        <v>31245</v>
+        <v>36974</v>
       </c>
       <c r="Q36">
-        <v>146</v>
+        <v>172.8</v>
       </c>
       <c r="R36">
-        <v>682.3</v>
+        <v>835.7</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -4580,19 +4595,19 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V36">
-        <v>89.2</v>
+        <v>109.5</v>
       </c>
       <c r="W36">
-        <v>8505</v>
+        <v>10903</v>
       </c>
       <c r="X36">
         <v>214</v>
       </c>
       <c r="Y36">
-        <v>254</v>
+        <v>300.6</v>
       </c>
       <c r="Z36">
         <v>123</v>
@@ -4604,13 +4619,13 @@
         <v>0.3</v>
       </c>
       <c r="AC36">
-        <v>44161</v>
+        <v>71712</v>
       </c>
       <c r="AD36">
-        <v>206.4</v>
+        <v>335.1</v>
       </c>
       <c r="AE36">
-        <v>498.1</v>
+        <v>550.3</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -4619,28 +4634,28 @@
         <v>0</v>
       </c>
       <c r="AH36">
-        <v>0</v>
+        <v>84.5</v>
       </c>
       <c r="AI36">
-        <v>79.5</v>
+        <v>470</v>
       </c>
       <c r="AJ36">
-        <v>3642</v>
+        <v>4716</v>
       </c>
       <c r="AK36">
         <v>214</v>
       </c>
       <c r="AL36">
-        <v>774.8</v>
+        <v>515.9</v>
       </c>
       <c r="AM36">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="AN36">
-        <v>26.6</v>
+        <v>65</v>
       </c>
       <c r="AO36">
-        <v>-0.3</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="37" spans="1:41">
@@ -4649,13 +4664,13 @@
         <v>26</v>
       </c>
       <c r="C37">
-        <v>13166</v>
+        <v>15758</v>
       </c>
       <c r="D37">
-        <v>239.4</v>
+        <v>286.5</v>
       </c>
       <c r="E37">
-        <v>723.2</v>
+        <v>923</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -4667,16 +4682,16 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="J37">
-        <v>5095</v>
+        <v>6584</v>
       </c>
       <c r="K37">
         <v>55</v>
       </c>
       <c r="L37">
-        <v>487.6</v>
+        <v>583.6</v>
       </c>
       <c r="M37">
         <v>27</v>
@@ -4685,16 +4700,16 @@
         <v>49.1</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P37">
-        <v>4172</v>
+        <v>4993</v>
       </c>
       <c r="Q37">
-        <v>75.90000000000001</v>
+        <v>90.8</v>
       </c>
       <c r="R37">
-        <v>251.5</v>
+        <v>304.2</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -4703,19 +4718,19 @@
         <v>0</v>
       </c>
       <c r="U37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V37">
-        <v>44.5</v>
+        <v>49.5</v>
       </c>
       <c r="W37">
-        <v>1744</v>
+        <v>2082</v>
       </c>
       <c r="X37">
         <v>55</v>
       </c>
       <c r="Y37">
-        <v>139.1</v>
+        <v>166.4</v>
       </c>
       <c r="Z37">
         <v>30</v>
@@ -4727,13 +4742,13 @@
         <v>0.2</v>
       </c>
       <c r="AC37">
-        <v>49239</v>
+        <v>17207</v>
       </c>
       <c r="AD37">
-        <v>895.3</v>
+        <v>312.9</v>
       </c>
       <c r="AE37">
-        <v>4965</v>
+        <v>415.9</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4742,28 +4757,28 @@
         <v>0</v>
       </c>
       <c r="AH37">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AI37">
-        <v>327</v>
+        <v>525</v>
       </c>
       <c r="AJ37">
-        <v>36858</v>
+        <v>1818</v>
       </c>
       <c r="AK37">
         <v>55</v>
       </c>
       <c r="AL37">
-        <v>3077.4</v>
+        <v>555.1</v>
       </c>
       <c r="AM37">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="AN37">
-        <v>29.1</v>
+        <v>56.4</v>
       </c>
       <c r="AO37">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:41">
@@ -4772,13 +4787,13 @@
         <v>27</v>
       </c>
       <c r="C38">
-        <v>5242</v>
+        <v>6443</v>
       </c>
       <c r="D38">
-        <v>308.4</v>
+        <v>379</v>
       </c>
       <c r="E38">
-        <v>586.5</v>
+        <v>697.8</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -4790,16 +4805,16 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>213</v>
+        <v>317</v>
       </c>
       <c r="J38">
-        <v>1745</v>
+        <v>1926</v>
       </c>
       <c r="K38">
         <v>17</v>
       </c>
       <c r="L38">
-        <v>748.9</v>
+        <v>920.4</v>
       </c>
       <c r="M38">
         <v>7</v>
@@ -4808,16 +4823,16 @@
         <v>41.2</v>
       </c>
       <c r="O38">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="P38">
-        <v>1513</v>
+        <v>1989</v>
       </c>
       <c r="Q38">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="R38">
-        <v>199.8</v>
+        <v>285.1</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -4829,16 +4844,16 @@
         <v>0</v>
       </c>
       <c r="V38">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="W38">
-        <v>724</v>
+        <v>1107</v>
       </c>
       <c r="X38">
         <v>17</v>
       </c>
       <c r="Y38">
-        <v>189.1</v>
+        <v>248.6</v>
       </c>
       <c r="Z38">
         <v>8</v>
@@ -4847,16 +4862,16 @@
         <v>47.1</v>
       </c>
       <c r="AB38">
-        <v>-0.1</v>
+        <v>-0</v>
       </c>
       <c r="AC38">
-        <v>2823</v>
+        <v>5099</v>
       </c>
       <c r="AD38">
-        <v>166.1</v>
+        <v>299.9</v>
       </c>
       <c r="AE38">
-        <v>316.8</v>
+        <v>418.1</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4865,28 +4880,28 @@
         <v>0</v>
       </c>
       <c r="AH38">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AI38">
-        <v>0</v>
+        <v>638</v>
       </c>
       <c r="AJ38">
-        <v>849</v>
+        <v>1189</v>
       </c>
       <c r="AK38">
         <v>17</v>
       </c>
       <c r="AL38">
-        <v>705.8</v>
+        <v>566.6</v>
       </c>
       <c r="AM38">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AN38">
-        <v>23.5</v>
+        <v>52.9</v>
       </c>
       <c r="AO38">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="39" spans="1:41">
@@ -4895,13 +4910,13 @@
         <v>33</v>
       </c>
       <c r="C39">
-        <v>40940</v>
+        <v>48486</v>
       </c>
       <c r="D39">
-        <v>1860.9</v>
+        <v>2203.9</v>
       </c>
       <c r="E39">
-        <v>2537.7</v>
+        <v>2981.5</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -4910,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>978</v>
+        <v>1171</v>
       </c>
       <c r="I39">
-        <v>2382</v>
+        <v>2943.2</v>
       </c>
       <c r="J39">
-        <v>8682</v>
+        <v>10192</v>
       </c>
       <c r="K39">
         <v>22</v>
       </c>
       <c r="L39">
-        <v>2924.3</v>
+        <v>3463.3</v>
       </c>
       <c r="M39">
         <v>14</v>
@@ -4931,16 +4946,16 @@
         <v>63.6</v>
       </c>
       <c r="O39">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="P39">
-        <v>23376</v>
+        <v>26758</v>
       </c>
       <c r="Q39">
-        <v>1062.5</v>
+        <v>1216.3</v>
       </c>
       <c r="R39">
-        <v>2805.7</v>
+        <v>3226.1</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -4949,19 +4964,19 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="V39">
-        <v>457.5</v>
+        <v>495.5</v>
       </c>
       <c r="W39">
-        <v>9692</v>
+        <v>11140</v>
       </c>
       <c r="X39">
         <v>22</v>
       </c>
       <c r="Y39">
-        <v>1669.7</v>
+        <v>1911.3</v>
       </c>
       <c r="Z39">
         <v>14</v>
@@ -4970,16 +4985,16 @@
         <v>63.6</v>
       </c>
       <c r="AB39">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AC39">
-        <v>16518</v>
+        <v>9289</v>
       </c>
       <c r="AD39">
-        <v>750.8</v>
+        <v>422.2</v>
       </c>
       <c r="AE39">
-        <v>1327.9</v>
+        <v>665.9</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4988,28 +5003,28 @@
         <v>0</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI39">
-        <v>1291.5</v>
+        <v>503.2</v>
       </c>
       <c r="AJ39">
-        <v>5316</v>
+        <v>1862</v>
       </c>
       <c r="AK39">
         <v>22</v>
       </c>
       <c r="AL39">
-        <v>1651.8</v>
+        <v>844.5</v>
       </c>
       <c r="AM39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN39">
-        <v>45.5</v>
+        <v>50</v>
       </c>
       <c r="AO39">
-        <v>0.4</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="40" spans="1:41">
@@ -5018,13 +5033,13 @@
         <v>28</v>
       </c>
       <c r="C40">
-        <v>396</v>
+        <v>462</v>
       </c>
       <c r="D40">
-        <v>79.2</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="E40">
-        <v>177.1</v>
+        <v>206.6</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -5039,13 +5054,13 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>396</v>
+        <v>462</v>
       </c>
       <c r="K40">
         <v>5</v>
       </c>
       <c r="L40">
-        <v>396</v>
+        <v>462</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -5057,13 +5072,13 @@
         <v>-1</v>
       </c>
       <c r="P40">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q40">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="R40">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -5078,13 +5093,13 @@
         <v>0</v>
       </c>
       <c r="W40">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="X40">
         <v>5</v>
       </c>
       <c r="Y40">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Z40">
         <v>1</v>
@@ -5096,13 +5111,13 @@
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="AD40">
-        <v>30.2</v>
+        <v>34.4</v>
       </c>
       <c r="AE40">
-        <v>67.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -5117,13 +5132,13 @@
         <v>0</v>
       </c>
       <c r="AJ40">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="AK40">
         <v>5</v>
       </c>
       <c r="AL40">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="AM40">
         <v>1</v>
@@ -5132,7 +5147,7 @@
         <v>20</v>
       </c>
       <c r="AO40">
-        <v>-0.5</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="41" spans="1:41">
@@ -5176,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <v>-1.7</v>
+        <v>-1.8</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -5215,43 +5230,40 @@
         <v>-1.7</v>
       </c>
       <c r="AC41">
-        <v>4826</v>
+        <v>0</v>
       </c>
       <c r="AD41">
-        <v>1608.7</v>
+        <v>0</v>
       </c>
       <c r="AE41">
-        <v>1394.1</v>
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
       </c>
       <c r="AG41">
-        <v>1181</v>
+        <v>0</v>
       </c>
       <c r="AH41">
-        <v>2362</v>
+        <v>0</v>
       </c>
       <c r="AI41">
-        <v>2413</v>
+        <v>0</v>
       </c>
       <c r="AJ41">
-        <v>2464</v>
+        <v>0</v>
       </c>
       <c r="AK41">
         <v>3</v>
       </c>
-      <c r="AL41">
-        <v>2413</v>
-      </c>
       <c r="AM41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN41">
-        <v>66.7</v>
+        <v>0</v>
       </c>
       <c r="AO41">
-        <v>1.1</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="42" spans="1:41">
@@ -5260,13 +5272,13 @@
         <v>24</v>
       </c>
       <c r="C42">
-        <v>37939</v>
+        <v>44393</v>
       </c>
       <c r="D42">
-        <v>729.6</v>
+        <v>853.7</v>
       </c>
       <c r="E42">
-        <v>1016.9</v>
+        <v>1221.6</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -5275,37 +5287,37 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>89</v>
+        <v>68.5</v>
       </c>
       <c r="I42">
-        <v>1332</v>
+        <v>1494.5</v>
       </c>
       <c r="J42">
-        <v>3881</v>
+        <v>4812</v>
       </c>
       <c r="K42">
         <v>52</v>
       </c>
       <c r="L42">
-        <v>1223.8</v>
+        <v>1479.8</v>
       </c>
       <c r="M42">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N42">
-        <v>59.6</v>
+        <v>57.7</v>
       </c>
       <c r="O42">
         <v>0.4</v>
       </c>
       <c r="P42">
-        <v>4651</v>
+        <v>5149</v>
       </c>
       <c r="Q42">
-        <v>89.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="R42">
-        <v>133.9</v>
+        <v>156.5</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -5314,37 +5326,37 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V42">
-        <v>161.5</v>
+        <v>167.8</v>
       </c>
       <c r="W42">
-        <v>529</v>
+        <v>622</v>
       </c>
       <c r="X42">
         <v>52</v>
       </c>
       <c r="Y42">
-        <v>145.3</v>
+        <v>166.1</v>
       </c>
       <c r="Z42">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA42">
-        <v>61.5</v>
+        <v>59.6</v>
       </c>
       <c r="AB42">
         <v>0.4</v>
       </c>
       <c r="AC42">
-        <v>57537</v>
+        <v>31108</v>
       </c>
       <c r="AD42">
-        <v>1106.5</v>
+        <v>598.2</v>
       </c>
       <c r="AE42">
-        <v>2788.5</v>
+        <v>918.2</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -5353,28 +5365,28 @@
         <v>0</v>
       </c>
       <c r="AH42">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="AI42">
-        <v>551.5</v>
+        <v>791.5</v>
       </c>
       <c r="AJ42">
-        <v>13336</v>
+        <v>3597</v>
       </c>
       <c r="AK42">
         <v>52</v>
       </c>
       <c r="AL42">
-        <v>2501.6</v>
+        <v>1036.9</v>
       </c>
       <c r="AM42">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AN42">
-        <v>44.2</v>
+        <v>57.7</v>
       </c>
       <c r="AO42">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43" spans="1:41">
@@ -5383,13 +5395,13 @@
         <v>29</v>
       </c>
       <c r="C43">
-        <v>10404</v>
+        <v>12202</v>
       </c>
       <c r="D43">
-        <v>1486.3</v>
+        <v>1743.1</v>
       </c>
       <c r="E43">
-        <v>2322.1</v>
+        <v>2684.6</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -5401,16 +5413,16 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>2305.5</v>
+        <v>2807</v>
       </c>
       <c r="J43">
-        <v>5793</v>
+        <v>6588</v>
       </c>
       <c r="K43">
         <v>7</v>
       </c>
       <c r="L43">
-        <v>3468</v>
+        <v>4067.3</v>
       </c>
       <c r="M43">
         <v>3</v>
@@ -5422,13 +5434,13 @@
         <v>-0.2</v>
       </c>
       <c r="P43">
-        <v>1193</v>
+        <v>1372</v>
       </c>
       <c r="Q43">
-        <v>170.4</v>
+        <v>196</v>
       </c>
       <c r="R43">
-        <v>345</v>
+        <v>387.9</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -5440,16 +5452,16 @@
         <v>0</v>
       </c>
       <c r="V43">
-        <v>127.5</v>
+        <v>158</v>
       </c>
       <c r="W43">
-        <v>938</v>
+        <v>1056</v>
       </c>
       <c r="X43">
         <v>7</v>
       </c>
       <c r="Y43">
-        <v>397.7</v>
+        <v>457.3</v>
       </c>
       <c r="Z43">
         <v>3</v>
@@ -5461,43 +5473,43 @@
         <v>-0.2</v>
       </c>
       <c r="AC43">
-        <v>5438</v>
+        <v>8780</v>
       </c>
       <c r="AD43">
-        <v>776.9</v>
+        <v>1254.3</v>
       </c>
       <c r="AE43">
-        <v>592.9</v>
+        <v>650</v>
       </c>
       <c r="AF43">
         <v>0</v>
       </c>
       <c r="AG43">
-        <v>422.5</v>
+        <v>1169</v>
       </c>
       <c r="AH43">
-        <v>926</v>
+        <v>1262</v>
       </c>
       <c r="AI43">
-        <v>1008</v>
+        <v>1600.5</v>
       </c>
       <c r="AJ43">
-        <v>1651</v>
+        <v>1979</v>
       </c>
       <c r="AK43">
         <v>7</v>
       </c>
       <c r="AL43">
-        <v>1087.6</v>
+        <v>1463.3</v>
       </c>
       <c r="AM43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN43">
-        <v>71.40000000000001</v>
+        <v>85.7</v>
       </c>
       <c r="AO43">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="44" spans="1:41">
@@ -5506,31 +5518,31 @@
         <v>30</v>
       </c>
       <c r="C44">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="D44">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="F44">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="G44">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="H44">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="I44">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="J44">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="K44">
         <v>1</v>
       </c>
       <c r="L44">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -5539,34 +5551,34 @@
         <v>100</v>
       </c>
       <c r="O44">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="P44">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="Q44">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="S44">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="T44">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="U44">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="V44">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="W44">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="X44">
         <v>1</v>
       </c>
       <c r="Y44">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="Z44">
         <v>1</v>
@@ -5575,34 +5587,34 @@
         <v>100</v>
       </c>
       <c r="AB44">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AC44">
-        <v>577</v>
+        <v>725</v>
       </c>
       <c r="AD44">
-        <v>577</v>
+        <v>725</v>
       </c>
       <c r="AF44">
-        <v>577</v>
+        <v>725</v>
       </c>
       <c r="AG44">
-        <v>577</v>
+        <v>725</v>
       </c>
       <c r="AH44">
-        <v>577</v>
+        <v>725</v>
       </c>
       <c r="AI44">
-        <v>577</v>
+        <v>725</v>
       </c>
       <c r="AJ44">
-        <v>577</v>
+        <v>725</v>
       </c>
       <c r="AK44">
         <v>1</v>
       </c>
       <c r="AL44">
-        <v>577</v>
+        <v>725</v>
       </c>
       <c r="AM44">
         <v>1</v>
@@ -5611,7 +5623,7 @@
         <v>100</v>
       </c>
       <c r="AO44">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="45" spans="1:41">
@@ -5620,34 +5632,34 @@
         <v>32</v>
       </c>
       <c r="C45">
-        <v>7499</v>
+        <v>8804</v>
       </c>
       <c r="D45">
-        <v>576.8</v>
+        <v>677.2</v>
       </c>
       <c r="E45">
-        <v>547.1</v>
+        <v>624.1</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="H45">
-        <v>496</v>
+        <v>631</v>
       </c>
       <c r="I45">
-        <v>846</v>
+        <v>967</v>
       </c>
       <c r="J45">
-        <v>1866</v>
+        <v>2104</v>
       </c>
       <c r="K45">
         <v>13</v>
       </c>
       <c r="L45">
-        <v>749.9</v>
+        <v>880.4</v>
       </c>
       <c r="M45">
         <v>10</v>
@@ -5656,37 +5668,37 @@
         <v>76.90000000000001</v>
       </c>
       <c r="O45">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="P45">
-        <v>1275</v>
+        <v>1464</v>
       </c>
       <c r="Q45">
-        <v>98.09999999999999</v>
+        <v>112.6</v>
       </c>
       <c r="R45">
-        <v>93.5</v>
+        <v>108.1</v>
       </c>
       <c r="S45">
         <v>0</v>
       </c>
       <c r="T45">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="U45">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="V45">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="W45">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="X45">
         <v>13</v>
       </c>
       <c r="Y45">
-        <v>127.5</v>
+        <v>146.4</v>
       </c>
       <c r="Z45">
         <v>10</v>
@@ -5695,46 +5707,46 @@
         <v>76.90000000000001</v>
       </c>
       <c r="AB45">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AC45">
-        <v>3312</v>
+        <v>5365</v>
       </c>
       <c r="AD45">
-        <v>254.8</v>
+        <v>412.7</v>
       </c>
       <c r="AE45">
-        <v>234.1</v>
+        <v>250.4</v>
       </c>
       <c r="AF45">
         <v>0</v>
       </c>
       <c r="AG45">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="AH45">
-        <v>321</v>
+        <v>463</v>
       </c>
       <c r="AI45">
-        <v>418</v>
+        <v>586</v>
       </c>
       <c r="AJ45">
-        <v>602</v>
+        <v>777</v>
       </c>
       <c r="AK45">
         <v>13</v>
       </c>
       <c r="AL45">
-        <v>414</v>
+        <v>487.7</v>
       </c>
       <c r="AM45">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AN45">
-        <v>61.5</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="AO45">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:41">
@@ -5743,13 +5755,13 @@
         <v>25</v>
       </c>
       <c r="C46">
-        <v>27926</v>
+        <v>33952</v>
       </c>
       <c r="D46">
-        <v>340.6</v>
+        <v>414</v>
       </c>
       <c r="E46">
-        <v>823.6</v>
+        <v>1029.7</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -5758,37 +5770,37 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>22.5</v>
+        <v>24.5</v>
       </c>
       <c r="I46">
-        <v>312.2</v>
+        <v>408.5</v>
       </c>
       <c r="J46">
-        <v>4906</v>
+        <v>6478</v>
       </c>
       <c r="K46">
         <v>82</v>
       </c>
       <c r="L46">
-        <v>581.8</v>
+        <v>692.9</v>
       </c>
       <c r="M46">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N46">
-        <v>58.5</v>
+        <v>59.8</v>
       </c>
       <c r="O46">
         <v>0.4</v>
       </c>
       <c r="P46">
-        <v>8285</v>
+        <v>10151</v>
       </c>
       <c r="Q46">
-        <v>101</v>
+        <v>123.8</v>
       </c>
       <c r="R46">
-        <v>389.8</v>
+        <v>492.3</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -5800,16 +5812,16 @@
         <v>5</v>
       </c>
       <c r="V46">
-        <v>31.8</v>
+        <v>46.2</v>
       </c>
       <c r="W46">
-        <v>3183</v>
+        <v>4083</v>
       </c>
       <c r="X46">
         <v>82</v>
       </c>
       <c r="Y46">
-        <v>172.6</v>
+        <v>211.5</v>
       </c>
       <c r="Z46">
         <v>48</v>
@@ -5818,16 +5830,16 @@
         <v>58.5</v>
       </c>
       <c r="AB46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AC46">
-        <v>20174</v>
+        <v>33021</v>
       </c>
       <c r="AD46">
-        <v>246</v>
+        <v>402.7</v>
       </c>
       <c r="AE46">
-        <v>470</v>
+        <v>625.7</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -5836,25 +5848,25 @@
         <v>0</v>
       </c>
       <c r="AH46">
-        <v>0</v>
+        <v>135.5</v>
       </c>
       <c r="AI46">
-        <v>279.5</v>
+        <v>503.8</v>
       </c>
       <c r="AJ46">
-        <v>1957</v>
+        <v>2486</v>
       </c>
       <c r="AK46">
         <v>82</v>
       </c>
       <c r="AL46">
-        <v>630.4</v>
+        <v>647.5</v>
       </c>
       <c r="AM46">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AN46">
-        <v>39</v>
+        <v>62.2</v>
       </c>
       <c r="AO46">
         <v>0.2</v>
@@ -5866,13 +5878,13 @@
         <v>26</v>
       </c>
       <c r="C47">
-        <v>6689</v>
+        <v>7737</v>
       </c>
       <c r="D47">
-        <v>215.8</v>
+        <v>249.6</v>
       </c>
       <c r="E47">
-        <v>439</v>
+        <v>497.5</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -5884,16 +5896,16 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>117.5</v>
+        <v>133</v>
       </c>
       <c r="J47">
-        <v>1624</v>
+        <v>1786</v>
       </c>
       <c r="K47">
         <v>31</v>
       </c>
       <c r="L47">
-        <v>477.8</v>
+        <v>552.6</v>
       </c>
       <c r="M47">
         <v>14</v>
@@ -5905,13 +5917,13 @@
         <v>-0.1</v>
       </c>
       <c r="P47">
-        <v>1706</v>
+        <v>1933</v>
       </c>
       <c r="Q47">
-        <v>55</v>
+        <v>62.4</v>
       </c>
       <c r="R47">
-        <v>153.4</v>
+        <v>166.2</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -5923,16 +5935,16 @@
         <v>0</v>
       </c>
       <c r="V47">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="W47">
-        <v>780</v>
+        <v>809</v>
       </c>
       <c r="X47">
         <v>31</v>
       </c>
       <c r="Y47">
-        <v>113.7</v>
+        <v>128.9</v>
       </c>
       <c r="Z47">
         <v>15</v>
@@ -5941,16 +5953,16 @@
         <v>48.4</v>
       </c>
       <c r="AB47">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC47">
-        <v>7670</v>
+        <v>7341</v>
       </c>
       <c r="AD47">
-        <v>247.4</v>
+        <v>236.8</v>
       </c>
       <c r="AE47">
-        <v>682</v>
+        <v>395.6</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -5959,28 +5971,28 @@
         <v>0</v>
       </c>
       <c r="AH47">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI47">
-        <v>64.5</v>
+        <v>243</v>
       </c>
       <c r="AJ47">
-        <v>3096</v>
+        <v>1413</v>
       </c>
       <c r="AK47">
         <v>31</v>
       </c>
       <c r="AL47">
-        <v>697.3</v>
+        <v>458.8</v>
       </c>
       <c r="AM47">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AN47">
-        <v>35.5</v>
+        <v>51.6</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="48" spans="1:41">
@@ -5989,13 +6001,13 @@
         <v>27</v>
       </c>
       <c r="C48">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D48">
-        <v>114.8</v>
+        <v>115</v>
       </c>
       <c r="E48">
-        <v>209.3</v>
+        <v>209.8</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -6007,16 +6019,16 @@
         <v>15.5</v>
       </c>
       <c r="I48">
-        <v>130.2</v>
+        <v>130.5</v>
       </c>
       <c r="J48">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K48">
         <v>4</v>
       </c>
       <c r="L48">
-        <v>229.5</v>
+        <v>230</v>
       </c>
       <c r="M48">
         <v>2</v>
@@ -6025,7 +6037,7 @@
         <v>50</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P48">
         <v>15</v>
@@ -6064,16 +6076,16 @@
         <v>50</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC48">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="AD48">
-        <v>0</v>
+        <v>89.2</v>
       </c>
       <c r="AE48">
-        <v>0</v>
+        <v>157.3</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -6082,25 +6094,28 @@
         <v>0</v>
       </c>
       <c r="AH48">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI48">
-        <v>0</v>
+        <v>105.8</v>
       </c>
       <c r="AJ48">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="AK48">
         <v>4</v>
       </c>
+      <c r="AL48">
+        <v>178.5</v>
+      </c>
       <c r="AM48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN48">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO48">
-        <v>-1.2</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="49" spans="1:41">
@@ -6109,13 +6124,13 @@
         <v>33</v>
       </c>
       <c r="C49">
-        <v>4792</v>
+        <v>5607</v>
       </c>
       <c r="D49">
-        <v>958.4</v>
+        <v>1121.4</v>
       </c>
       <c r="E49">
-        <v>1362.2</v>
+        <v>1620.1</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -6124,19 +6139,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="I49">
-        <v>1419</v>
+        <v>1605</v>
       </c>
       <c r="J49">
-        <v>3155</v>
+        <v>3762</v>
       </c>
       <c r="K49">
         <v>5</v>
       </c>
       <c r="L49">
-        <v>1597.3</v>
+        <v>1869</v>
       </c>
       <c r="M49">
         <v>3</v>
@@ -6145,16 +6160,16 @@
         <v>60</v>
       </c>
       <c r="O49">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="P49">
-        <v>1418</v>
+        <v>1594</v>
       </c>
       <c r="Q49">
-        <v>283.6</v>
+        <v>318.8</v>
       </c>
       <c r="R49">
-        <v>537.6</v>
+        <v>598.8</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -6166,16 +6181,16 @@
         <v>7</v>
       </c>
       <c r="V49">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="W49">
-        <v>1236</v>
+        <v>1378</v>
       </c>
       <c r="X49">
         <v>5</v>
       </c>
       <c r="Y49">
-        <v>472.7</v>
+        <v>531.3</v>
       </c>
       <c r="Z49">
         <v>3</v>
@@ -6187,13 +6202,13 @@
         <v>0.4</v>
       </c>
       <c r="AC49">
-        <v>3056</v>
+        <v>2097</v>
       </c>
       <c r="AD49">
-        <v>611.2</v>
+        <v>419.4</v>
       </c>
       <c r="AE49">
-        <v>621.9</v>
+        <v>492.9</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -6202,19 +6217,19 @@
         <v>0</v>
       </c>
       <c r="AH49">
-        <v>669</v>
+        <v>219</v>
       </c>
       <c r="AI49">
-        <v>950</v>
+        <v>798</v>
       </c>
       <c r="AJ49">
-        <v>1437</v>
+        <v>1080</v>
       </c>
       <c r="AK49">
         <v>5</v>
       </c>
       <c r="AL49">
-        <v>1018.7</v>
+        <v>699</v>
       </c>
       <c r="AM49">
         <v>3</v>
@@ -6223,7 +6238,7 @@
         <v>60</v>
       </c>
       <c r="AO49">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="50" spans="1:41">
@@ -6232,13 +6247,13 @@
         <v>28</v>
       </c>
       <c r="C50">
-        <v>1047</v>
+        <v>1292</v>
       </c>
       <c r="D50">
-        <v>116.3</v>
+        <v>143.6</v>
       </c>
       <c r="E50">
-        <v>228.5</v>
+        <v>301.8</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -6250,16 +6265,16 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J50">
-        <v>670</v>
+        <v>906</v>
       </c>
       <c r="K50">
         <v>9</v>
       </c>
       <c r="L50">
-        <v>261.8</v>
+        <v>323</v>
       </c>
       <c r="M50">
         <v>4</v>
@@ -6268,16 +6283,16 @@
         <v>44.4</v>
       </c>
       <c r="O50">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="P50">
-        <v>382</v>
+        <v>412</v>
       </c>
       <c r="Q50">
-        <v>42.4</v>
+        <v>45.8</v>
       </c>
       <c r="R50">
-        <v>94.8</v>
+        <v>104.5</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -6289,16 +6304,16 @@
         <v>0</v>
       </c>
       <c r="V50">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W50">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="X50">
         <v>9</v>
       </c>
       <c r="Y50">
-        <v>127.3</v>
+        <v>137.3</v>
       </c>
       <c r="Z50">
         <v>3</v>
@@ -6310,43 +6325,43 @@
         <v>-0.5</v>
       </c>
       <c r="AC50">
-        <v>2286</v>
+        <v>3001</v>
       </c>
       <c r="AD50">
-        <v>254</v>
+        <v>333.4</v>
       </c>
       <c r="AE50">
-        <v>333.6</v>
+        <v>450.5</v>
       </c>
       <c r="AF50">
         <v>0</v>
       </c>
       <c r="AG50">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AH50">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="AI50">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="AJ50">
-        <v>965</v>
+        <v>1398</v>
       </c>
       <c r="AK50">
         <v>9</v>
       </c>
       <c r="AL50">
-        <v>457.2</v>
+        <v>375.1</v>
       </c>
       <c r="AM50">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AN50">
-        <v>55.6</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="AO50">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
